--- a/Manuals/TopSky_Developer_Guide_Settings.xlsx
+++ b/Manuals/TopSky_Developer_Guide_Settings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juha\Documents\Office Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jakob\Documents\EuroScope\ENOR-Norway-NC-DEV\ENOR\Plugins\Manuals\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2B30BC3-3BA6-49BC-AED3-E4ECF529ACB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70467303-EAB2-4918-A79C-0781F320342F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TopSky 2.4" sheetId="1" r:id="rId1"/>
@@ -5586,7 +5586,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperkobling" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="329">
@@ -7663,7 +7663,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -7987,10 +7987,10 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.5703125" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="6" customWidth="1"/>
@@ -23434,7 +23434,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="3">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:G1"/>
@@ -24554,7 +24553,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
@@ -25434,7 +25433,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">

--- a/Manuals/TopSky_Developer_Guide_Settings.xlsx
+++ b/Manuals/TopSky_Developer_Guide_Settings.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jakob\Documents\EuroScope\ENOR-Norway-NC-DEV\ENOR\Plugins\Manuals\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juha\Documents\Office Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70467303-EAB2-4918-A79C-0781F320342F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB3CBB8F-B17B-4BDD-99A6-3E5932613E05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TopSky 2.4" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3754" uniqueCount="1814">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3752" uniqueCount="1813">
   <si>
     <t>Color_Active_Map</t>
   </si>
@@ -3995,9 +3995,6 @@
   </si>
   <si>
     <t>WXR_TestMode</t>
-  </si>
-  <si>
-    <t>Use Weather radar test image (must be "TopSkyWXRtest256.png" (256x256pix) or "TopSkyWXRtest512.png" (512x512pix), in the plugin folder) instead of the live online data.</t>
   </si>
   <si>
     <t>WXR_Server</t>
@@ -5586,10 +5583,17 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperkobling" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="329">
+  <dxfs count="330">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -7663,7 +7667,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -7983,14 +7987,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K867"/>
+  <dimension ref="A1:K866"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.5703125" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="6" customWidth="1"/>
@@ -8097,7 +8101,7 @@
         <v>596</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="C5" t="s">
         <v>140</v>
@@ -8114,7 +8118,7 @@
         <v>808</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="C6" t="s">
         <v>140</v>
@@ -8165,10 +8169,10 @@
         <v>1150</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>1601</v>
+      </c>
+      <c r="C9" t="s">
         <v>1602</v>
-      </c>
-      <c r="C9" t="s">
-        <v>1603</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>153</v>
@@ -8189,13 +8193,13 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>1381</v>
+      </c>
+      <c r="C10" t="s">
         <v>1380</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>1382</v>
-      </c>
-      <c r="C10" t="s">
-        <v>1381</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>805</v>
@@ -8263,13 +8267,13 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>1717</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>1718</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="C14" t="s">
         <v>1719</v>
-      </c>
-      <c r="C14" t="s">
-        <v>1720</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>153</v>
@@ -8286,10 +8290,10 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>1720</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>1721</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>1722</v>
       </c>
       <c r="C15" t="s">
         <v>138</v>
@@ -8373,10 +8377,10 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="C18" t="s">
         <v>159</v>
@@ -8408,10 +8412,10 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="C19" t="s">
         <v>159</v>
@@ -8492,7 +8496,7 @@
         <v>140</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>935</v>
@@ -8523,7 +8527,7 @@
         <v>117</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="C24" t="s">
         <v>140</v>
@@ -8532,7 +8536,7 @@
         <v>1000</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -8540,7 +8544,7 @@
         <v>126</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="C25" t="s">
         <v>140</v>
@@ -8574,7 +8578,7 @@
         <v>956</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="C27" t="s">
         <v>159</v>
@@ -8594,13 +8598,13 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="B28" s="6" t="s">
+        <v>1442</v>
+      </c>
+      <c r="C28" t="s">
         <v>1443</v>
-      </c>
-      <c r="C28" t="s">
-        <v>1444</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>150</v>
@@ -8734,10 +8738,10 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>1752</v>
+      </c>
+      <c r="B36" s="6" t="s">
         <v>1753</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>1754</v>
       </c>
       <c r="C36" t="s">
         <v>138</v>
@@ -8757,7 +8761,7 @@
         <v>1280</v>
       </c>
       <c r="C37" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>805</v>
@@ -8843,7 +8847,7 @@
         <v>238</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="C42" t="s">
         <v>138</v>
@@ -8891,10 +8895,10 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="C45" t="s">
         <v>138</v>
@@ -8908,7 +8912,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="B46" s="6" t="s">
         <v>521</v>
@@ -8928,13 +8932,13 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>1680</v>
+      </c>
+      <c r="B47" s="6" t="s">
         <v>1681</v>
       </c>
-      <c r="B47" s="6" t="s">
-        <v>1682</v>
-      </c>
       <c r="C47" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="D47" s="5" t="s">
         <v>805</v>
@@ -9404,7 +9408,7 @@
         <v>995</v>
       </c>
       <c r="C70" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="D70" s="5" t="s">
         <v>153</v>
@@ -9438,10 +9442,10 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
+        <v>1620</v>
+      </c>
+      <c r="B72" s="6" t="s">
         <v>1621</v>
-      </c>
-      <c r="B72" s="6" t="s">
-        <v>1622</v>
       </c>
       <c r="C72" t="s">
         <v>138</v>
@@ -9464,7 +9468,7 @@
         <v>139</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>1180</v>
@@ -9821,7 +9825,7 @@
         <v>139</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>625</v>
@@ -9838,7 +9842,7 @@
         <v>139</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="G96" s="2" t="s">
         <v>623</v>
@@ -9872,7 +9876,7 @@
         <v>139</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>66</v>
@@ -9940,7 +9944,7 @@
         <v>139</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>1256</v>
@@ -10110,7 +10114,7 @@
         <v>139</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="G112" s="2" t="s">
         <v>1258</v>
@@ -10144,7 +10148,7 @@
         <v>139</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="G114" s="2" t="s">
         <v>1193</v>
@@ -10722,7 +10726,7 @@
         <v>139</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="G148" s="2" t="s">
         <v>1248</v>
@@ -10858,7 +10862,7 @@
         <v>139</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="G156" s="2" t="s">
         <v>1210</v>
@@ -10875,7 +10879,7 @@
         <v>139</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
       <c r="G157" s="2" t="s">
         <v>1211</v>
@@ -11300,7 +11304,7 @@
         <v>139</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="G182" s="2" t="s">
         <v>1270</v>
@@ -11308,7 +11312,7 @@
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="B183" s="6" t="s">
         <v>595</v>
@@ -11317,12 +11321,12 @@
         <v>139</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="B184" s="6" t="s">
         <v>595</v>
@@ -11331,12 +11335,12 @@
         <v>139</v>
       </c>
       <c r="G184" s="2" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="B185" s="6" t="s">
         <v>595</v>
@@ -11345,7 +11349,7 @@
         <v>139</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
@@ -11750,7 +11754,7 @@
         <v>139</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="G209" s="2" t="s">
         <v>1194</v>
@@ -11826,7 +11830,7 @@
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="B214" s="6" t="s">
         <v>595</v>
@@ -11835,10 +11839,10 @@
         <v>139</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="G214" s="2" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
@@ -11877,7 +11881,7 @@
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="B217" s="6" t="s">
         <v>595</v>
@@ -11886,10 +11890,10 @@
         <v>139</v>
       </c>
       <c r="F217" s="2" t="s">
+        <v>1360</v>
+      </c>
+      <c r="G217" s="2" t="s">
         <v>1361</v>
-      </c>
-      <c r="G217" s="2" t="s">
-        <v>1362</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
@@ -11937,7 +11941,7 @@
         <v>139</v>
       </c>
       <c r="F220" s="2" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="G220" s="2" t="s">
         <v>1272</v>
@@ -12053,10 +12057,10 @@
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
+        <v>1438</v>
+      </c>
+      <c r="B228" s="6" t="s">
         <v>1439</v>
-      </c>
-      <c r="B228" s="6" t="s">
-        <v>1440</v>
       </c>
       <c r="C228" t="s">
         <v>138</v>
@@ -12138,10 +12142,10 @@
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="B233" s="6" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="C233" t="s">
         <v>138</v>
@@ -12155,10 +12159,10 @@
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
+        <v>1545</v>
+      </c>
+      <c r="B234" s="6" t="s">
         <v>1546</v>
-      </c>
-      <c r="B234" s="6" t="s">
-        <v>1547</v>
       </c>
       <c r="C234" t="s">
         <v>148</v>
@@ -12355,10 +12359,10 @@
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
+        <v>1436</v>
+      </c>
+      <c r="B244" s="6" t="s">
         <v>1437</v>
-      </c>
-      <c r="B244" s="6" t="s">
-        <v>1438</v>
       </c>
       <c r="C244" t="s">
         <v>138</v>
@@ -12381,10 +12385,10 @@
         <v>140</v>
       </c>
       <c r="F245" s="2" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="G245" s="2" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
@@ -12398,10 +12402,10 @@
         <v>140</v>
       </c>
       <c r="F246" s="2" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="G246" s="2" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
@@ -12415,10 +12419,10 @@
         <v>140</v>
       </c>
       <c r="F247" s="2" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="G247" s="2" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
@@ -12432,27 +12436,27 @@
         <v>140</v>
       </c>
       <c r="F248" s="2" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
       <c r="G248" s="2" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B249" s="6" t="s">
         <v>1455</v>
-      </c>
-      <c r="B249" s="6" t="s">
-        <v>1456</v>
       </c>
       <c r="C249" t="s">
         <v>140</v>
       </c>
       <c r="F249" s="2" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="G249" s="2" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
@@ -12466,10 +12470,10 @@
         <v>140</v>
       </c>
       <c r="F250" s="2" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="G250" s="2" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
@@ -12483,10 +12487,10 @@
         <v>140</v>
       </c>
       <c r="F251" s="2" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="G251" s="2" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
@@ -12500,10 +12504,10 @@
         <v>140</v>
       </c>
       <c r="F252" s="2" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="G252" s="2" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
@@ -12517,10 +12521,10 @@
         <v>140</v>
       </c>
       <c r="F253" s="2" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="G253" s="2" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
@@ -12534,44 +12538,44 @@
         <v>140</v>
       </c>
       <c r="F254" s="2" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="G254" s="2" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
+        <v>1456</v>
+      </c>
+      <c r="B255" s="6" t="s">
         <v>1457</v>
-      </c>
-      <c r="B255" s="6" t="s">
-        <v>1458</v>
       </c>
       <c r="C255" t="s">
         <v>140</v>
       </c>
       <c r="F255" s="2" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="G255" s="2" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B256" s="6" t="s">
         <v>1459</v>
-      </c>
-      <c r="B256" s="6" t="s">
-        <v>1460</v>
       </c>
       <c r="C256" t="s">
         <v>140</v>
       </c>
       <c r="F256" s="2" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="G256" s="2" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
@@ -12585,10 +12589,10 @@
         <v>140</v>
       </c>
       <c r="F257" s="2" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="G257" s="2" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
@@ -12602,10 +12606,10 @@
         <v>140</v>
       </c>
       <c r="F258" s="2" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="G258" s="2" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
@@ -12619,18 +12623,18 @@
         <v>140</v>
       </c>
       <c r="F259" s="2" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="G259" s="2" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B261" s="6" t="s">
         <v>1580</v>
-      </c>
-      <c r="B261" s="6" t="s">
-        <v>1581</v>
       </c>
       <c r="C261" t="s">
         <v>138</v>
@@ -12661,10 +12665,10 @@
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
       <c r="B263" s="6" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="C263" t="s">
         <v>138</v>
@@ -12678,10 +12682,10 @@
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="B264" s="6" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="C264" t="s">
         <v>138</v>
@@ -12695,13 +12699,13 @@
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="B265" s="6" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="C265" t="s">
-        <v>1566</v>
+        <v>1565</v>
       </c>
       <c r="D265" s="5" t="s">
         <v>153</v>
@@ -12718,10 +12722,10 @@
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="B266" s="6" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="C266" t="s">
         <v>145</v>
@@ -12741,10 +12745,10 @@
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
+        <v>1591</v>
+      </c>
+      <c r="B267" s="6" t="s">
         <v>1592</v>
-      </c>
-      <c r="B267" s="6" t="s">
-        <v>1593</v>
       </c>
       <c r="C267" t="s">
         <v>167</v>
@@ -12781,10 +12785,10 @@
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
+        <v>1559</v>
+      </c>
+      <c r="B269" s="6" t="s">
         <v>1560</v>
-      </c>
-      <c r="B269" s="6" t="s">
-        <v>1561</v>
       </c>
       <c r="C269" t="s">
         <v>138</v>
@@ -12798,10 +12802,10 @@
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
+        <v>1561</v>
+      </c>
+      <c r="B270" s="6" t="s">
         <v>1562</v>
-      </c>
-      <c r="B270" s="6" t="s">
-        <v>1563</v>
       </c>
       <c r="C270" t="s">
         <v>138</v>
@@ -12815,13 +12819,13 @@
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
+        <v>1563</v>
+      </c>
+      <c r="B271" s="6" t="s">
         <v>1564</v>
       </c>
-      <c r="B271" s="6" t="s">
+      <c r="C271" t="s">
         <v>1565</v>
-      </c>
-      <c r="C271" t="s">
-        <v>1566</v>
       </c>
       <c r="D271" s="5" t="s">
         <v>153</v>
@@ -12838,10 +12842,10 @@
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
+        <v>1573</v>
+      </c>
+      <c r="B272" s="6" t="s">
         <v>1574</v>
-      </c>
-      <c r="B272" s="6" t="s">
-        <v>1575</v>
       </c>
       <c r="C272" t="s">
         <v>179</v>
@@ -12850,7 +12854,7 @@
         <v>1305</v>
       </c>
       <c r="E272" s="5" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="F272" s="2">
         <v>2</v>
@@ -12861,19 +12865,19 @@
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
+        <v>1575</v>
+      </c>
+      <c r="B273" s="6" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C273" t="s">
         <v>1576</v>
-      </c>
-      <c r="B273" s="6" t="s">
-        <v>1579</v>
-      </c>
-      <c r="C273" t="s">
-        <v>1577</v>
       </c>
       <c r="D273" s="5" t="s">
         <v>1305</v>
       </c>
       <c r="E273" s="5" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="F273" s="2">
         <v>5</v>
@@ -12884,10 +12888,10 @@
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
+        <v>1566</v>
+      </c>
+      <c r="B274" s="6" t="s">
         <v>1567</v>
-      </c>
-      <c r="B274" s="6" t="s">
-        <v>1568</v>
       </c>
       <c r="C274" t="s">
         <v>179</v>
@@ -12896,7 +12900,7 @@
         <v>1305</v>
       </c>
       <c r="E274" s="5" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="F274" s="2">
         <v>30</v>
@@ -12907,10 +12911,10 @@
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B275" s="6" t="s">
         <v>1570</v>
-      </c>
-      <c r="B275" s="6" t="s">
-        <v>1571</v>
       </c>
       <c r="C275" t="s">
         <v>179</v>
@@ -12919,7 +12923,7 @@
         <v>1305</v>
       </c>
       <c r="E275" s="5" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="F275" s="2">
         <v>30</v>
@@ -12930,10 +12934,10 @@
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
+        <v>1571</v>
+      </c>
+      <c r="B276" s="6" t="s">
         <v>1572</v>
-      </c>
-      <c r="B276" s="6" t="s">
-        <v>1573</v>
       </c>
       <c r="C276" t="s">
         <v>179</v>
@@ -12942,7 +12946,7 @@
         <v>1305</v>
       </c>
       <c r="E276" s="5" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="F276" s="2">
         <v>5</v>
@@ -12953,19 +12957,19 @@
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
+        <v>1589</v>
+      </c>
+      <c r="B277" s="6" t="s">
         <v>1590</v>
       </c>
-      <c r="B277" s="6" t="s">
-        <v>1591</v>
-      </c>
       <c r="C277" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="D277" s="5" t="s">
         <v>1305</v>
       </c>
       <c r="E277" s="5" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="F277" s="2">
         <v>10</v>
@@ -12976,10 +12980,10 @@
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
+        <v>1593</v>
+      </c>
+      <c r="B278" s="6" t="s">
         <v>1594</v>
-      </c>
-      <c r="B278" s="6" t="s">
-        <v>1595</v>
       </c>
       <c r="C278" t="s">
         <v>167</v>
@@ -13002,10 +13006,10 @@
         <v>100</v>
       </c>
       <c r="B280" s="6" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C280" t="s">
         <v>1676</v>
-      </c>
-      <c r="C280" t="s">
-        <v>1677</v>
       </c>
       <c r="D280" s="5" t="s">
         <v>153</v>
@@ -13286,10 +13290,10 @@
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
+        <v>1541</v>
+      </c>
+      <c r="B297" s="6" t="s">
         <v>1542</v>
-      </c>
-      <c r="B297" s="6" t="s">
-        <v>1543</v>
       </c>
       <c r="C297" t="s">
         <v>138</v>
@@ -13303,10 +13307,10 @@
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="B298" s="6" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="C298" t="s">
         <v>138</v>
@@ -13320,10 +13324,10 @@
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="B299" s="6" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="C299" t="s">
         <v>138</v>
@@ -13400,19 +13404,19 @@
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="B303" s="6" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="C303" t="s">
         <v>146</v>
       </c>
       <c r="D303" s="5" t="s">
+        <v>1486</v>
+      </c>
+      <c r="E303" s="5" t="s">
         <v>1487</v>
-      </c>
-      <c r="E303" s="5" t="s">
-        <v>1488</v>
       </c>
       <c r="F303" s="2">
         <v>10021</v>
@@ -13512,10 +13516,10 @@
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
+        <v>1477</v>
+      </c>
+      <c r="B309" s="6" t="s">
         <v>1478</v>
-      </c>
-      <c r="B309" s="6" t="s">
-        <v>1479</v>
       </c>
       <c r="C309" t="s">
         <v>148</v>
@@ -13575,10 +13579,10 @@
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
+        <v>1652</v>
+      </c>
+      <c r="B312" s="6" t="s">
         <v>1653</v>
-      </c>
-      <c r="B312" s="6" t="s">
-        <v>1654</v>
       </c>
       <c r="C312" t="s">
         <v>138</v>
@@ -13592,10 +13596,10 @@
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
+        <v>1654</v>
+      </c>
+      <c r="B313" s="6" t="s">
         <v>1655</v>
-      </c>
-      <c r="B313" s="6" t="s">
-        <v>1656</v>
       </c>
       <c r="C313" t="s">
         <v>138</v>
@@ -13618,10 +13622,10 @@
         <v>140</v>
       </c>
       <c r="F315" s="15" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="G315" s="15" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.25">
@@ -13697,7 +13701,7 @@
         <v>747</v>
       </c>
       <c r="B320" s="6" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="C320" t="s">
         <v>140</v>
@@ -13722,27 +13726,27 @@
     </row>
     <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="B323" s="6" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="C323" t="s">
         <v>140</v>
       </c>
       <c r="F323" s="2" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="G323" s="2" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="B324" s="6" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="C324" t="s">
         <v>146</v>
@@ -13762,10 +13766,10 @@
     </row>
     <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="B325" s="6" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="C325" t="s">
         <v>146</v>
@@ -13785,10 +13789,10 @@
     </row>
     <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
+        <v>1430</v>
+      </c>
+      <c r="B326" s="6" t="s">
         <v>1431</v>
-      </c>
-      <c r="B326" s="6" t="s">
-        <v>1432</v>
       </c>
       <c r="C326" t="s">
         <v>146</v>
@@ -13808,10 +13812,10 @@
     </row>
     <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
+        <v>1432</v>
+      </c>
+      <c r="B327" s="6" t="s">
         <v>1433</v>
-      </c>
-      <c r="B327" s="6" t="s">
-        <v>1434</v>
       </c>
       <c r="C327" t="s">
         <v>146</v>
@@ -14075,27 +14079,27 @@
     </row>
     <row r="346" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
+        <v>1420</v>
+      </c>
+      <c r="B346" s="6" t="s">
         <v>1421</v>
-      </c>
-      <c r="B346" s="6" t="s">
-        <v>1422</v>
       </c>
       <c r="C346" t="s">
         <v>140</v>
       </c>
       <c r="F346" s="15" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="G346" s="15" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="348" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B348" s="6" t="s">
         <v>1445</v>
-      </c>
-      <c r="B348" s="6" t="s">
-        <v>1446</v>
       </c>
       <c r="C348" t="s">
         <v>146</v>
@@ -14198,10 +14202,10 @@
     </row>
     <row r="353" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
+        <v>1480</v>
+      </c>
+      <c r="B353" s="6" t="s">
         <v>1481</v>
-      </c>
-      <c r="B353" s="6" t="s">
-        <v>1482</v>
       </c>
       <c r="C353" t="s">
         <v>138</v>
@@ -14255,10 +14259,10 @@
     </row>
     <row r="356" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="B356" s="6" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C356" t="s">
         <v>138</v>
@@ -14332,10 +14336,10 @@
     </row>
     <row r="360" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B360" s="6" t="s">
         <v>1417</v>
-      </c>
-      <c r="B360" s="6" t="s">
-        <v>1418</v>
       </c>
       <c r="C360" t="s">
         <v>146</v>
@@ -14372,33 +14376,33 @@
     </row>
     <row r="362" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="B362" s="6" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="C362" t="s">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="D362" s="5" t="s">
         <v>805</v>
       </c>
       <c r="H362" s="2" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
       <c r="I362" s="2" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="363" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
       <c r="B363" s="6" t="s">
+        <v>1557</v>
+      </c>
+      <c r="C363" t="s">
         <v>1558</v>
-      </c>
-      <c r="C363" t="s">
-        <v>1559</v>
       </c>
       <c r="D363" s="5" t="s">
         <v>805</v>
@@ -14406,10 +14410,10 @@
     </row>
     <row r="364" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
+        <v>1548</v>
+      </c>
+      <c r="B364" s="6" t="s">
         <v>1549</v>
-      </c>
-      <c r="B364" s="6" t="s">
-        <v>1550</v>
       </c>
       <c r="C364" t="s">
         <v>146</v>
@@ -14435,10 +14439,10 @@
     </row>
     <row r="365" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B365" s="6" t="s">
         <v>1419</v>
-      </c>
-      <c r="B365" s="6" t="s">
-        <v>1420</v>
       </c>
       <c r="C365" t="s">
         <v>146</v>
@@ -14521,10 +14525,10 @@
     </row>
     <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="B369" s="6" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="C369" t="s">
         <v>146</v>
@@ -14533,7 +14537,7 @@
         <v>151</v>
       </c>
       <c r="E369" s="5" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="F369" s="2">
         <v>50</v>
@@ -14544,19 +14548,19 @@
     </row>
     <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="B370" s="6" t="s">
+        <v>1495</v>
+      </c>
+      <c r="C370" t="s">
         <v>1496</v>
-      </c>
-      <c r="C370" t="s">
-        <v>1497</v>
       </c>
       <c r="D370" s="5" t="s">
         <v>151</v>
       </c>
       <c r="E370" s="5" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="F370" s="2">
         <v>50</v>
@@ -14573,7 +14577,7 @@
         <v>453</v>
       </c>
       <c r="C371" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="F371" s="2">
         <v>1</v>
@@ -14693,10 +14697,10 @@
     </row>
     <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
+        <v>1550</v>
+      </c>
+      <c r="B377" s="6" t="s">
         <v>1551</v>
-      </c>
-      <c r="B377" s="6" t="s">
-        <v>1552</v>
       </c>
       <c r="C377" t="s">
         <v>146</v>
@@ -14733,10 +14737,10 @@
     </row>
     <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
+        <v>1704</v>
+      </c>
+      <c r="B379" s="6" t="s">
         <v>1705</v>
-      </c>
-      <c r="B379" s="6" t="s">
-        <v>1706</v>
       </c>
       <c r="C379" t="s">
         <v>140</v>
@@ -14744,10 +14748,10 @@
     </row>
     <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
+        <v>1706</v>
+      </c>
+      <c r="B380" s="6" t="s">
         <v>1707</v>
-      </c>
-      <c r="B380" s="6" t="s">
-        <v>1708</v>
       </c>
       <c r="C380" t="s">
         <v>140</v>
@@ -14755,10 +14759,10 @@
     </row>
     <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="B381" s="6" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="C381" t="s">
         <v>140</v>
@@ -14766,10 +14770,10 @@
     </row>
     <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="B382" s="6" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="C382" t="s">
         <v>140</v>
@@ -14889,7 +14893,7 @@
     </row>
     <row r="392" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="B392" s="6" t="s">
         <v>609</v>
@@ -14903,7 +14907,7 @@
     </row>
     <row r="393" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="B393" s="6" t="s">
         <v>609</v>
@@ -14917,7 +14921,7 @@
     </row>
     <row r="394" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="B394" s="6" t="s">
         <v>609</v>
@@ -14931,7 +14935,7 @@
     </row>
     <row r="395" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="B395" s="6" t="s">
         <v>609</v>
@@ -14945,7 +14949,7 @@
     </row>
     <row r="396" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="B396" s="6" t="s">
         <v>609</v>
@@ -15718,10 +15722,10 @@
     </row>
     <row r="457" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
+        <v>1632</v>
+      </c>
+      <c r="B457" s="6" t="s">
         <v>1633</v>
-      </c>
-      <c r="B457" s="6" t="s">
-        <v>1634</v>
       </c>
       <c r="C457" t="s">
         <v>138</v>
@@ -15735,10 +15739,10 @@
     </row>
     <row r="458" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="B458" s="6" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="C458" t="s">
         <v>138</v>
@@ -15752,13 +15756,13 @@
     </row>
     <row r="459" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="B459" s="6" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="C459" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="D459" s="5" t="s">
         <v>805</v>
@@ -15766,7 +15770,7 @@
     </row>
     <row r="460" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="B460" s="6" t="s">
         <v>586</v>
@@ -15789,7 +15793,7 @@
     </row>
     <row r="461" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="B461" s="6" t="s">
         <v>612</v>
@@ -15806,13 +15810,13 @@
     </row>
     <row r="462" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="B462" s="6" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="C462" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="D462" s="5" t="s">
         <v>805</v>
@@ -15820,7 +15824,7 @@
     </row>
     <row r="463" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="B463" s="6" t="s">
         <v>1058</v>
@@ -15837,7 +15841,7 @@
     </row>
     <row r="464" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="B464" s="6" t="s">
         <v>1056</v>
@@ -15860,10 +15864,10 @@
     </row>
     <row r="465" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="B465" s="6" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="C465" s="6" t="s">
         <v>146</v>
@@ -15883,10 +15887,10 @@
     </row>
     <row r="466" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="B466" s="6" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="C466" s="6" t="s">
         <v>146</v>
@@ -15906,10 +15910,10 @@
     </row>
     <row r="467" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="B467" s="6" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="C467" s="6" t="s">
         <v>138</v>
@@ -15923,10 +15927,10 @@
     </row>
     <row r="468" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
+        <v>1638</v>
+      </c>
+      <c r="B468" s="6" t="s">
         <v>1639</v>
-      </c>
-      <c r="B468" s="6" t="s">
-        <v>1640</v>
       </c>
       <c r="C468" s="6" t="s">
         <v>138</v>
@@ -15940,10 +15944,10 @@
     </row>
     <row r="469" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
+        <v>1750</v>
+      </c>
+      <c r="B469" s="6" t="s">
         <v>1751</v>
-      </c>
-      <c r="B469" s="6" t="s">
-        <v>1752</v>
       </c>
       <c r="C469" s="6" t="s">
         <v>138</v>
@@ -15963,10 +15967,10 @@
     </row>
     <row r="470" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
+        <v>1640</v>
+      </c>
+      <c r="B470" s="6" t="s">
         <v>1641</v>
-      </c>
-      <c r="B470" s="6" t="s">
-        <v>1642</v>
       </c>
       <c r="C470" s="6" t="s">
         <v>138</v>
@@ -15980,10 +15984,10 @@
     </row>
     <row r="471" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="B471" s="6" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="C471" s="6" t="s">
         <v>138</v>
@@ -15997,13 +16001,13 @@
     </row>
     <row r="472" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="B472" s="6" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="C472" s="6" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="D472" s="5" t="s">
         <v>805</v>
@@ -16017,13 +16021,13 @@
     </row>
     <row r="473" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="B473" s="6" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="C473" s="6" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="D473" s="5" t="s">
         <v>805</v>
@@ -16031,13 +16035,13 @@
     </row>
     <row r="474" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="B474" s="6" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="C474" s="6" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="D474" s="5" t="s">
         <v>805</v>
@@ -16051,13 +16055,13 @@
     </row>
     <row r="475" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="B475" s="6" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="C475" s="6" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="D475" s="5" t="s">
         <v>805</v>
@@ -16065,13 +16069,13 @@
     </row>
     <row r="476" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="B476" s="6" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="C476" s="6" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="D476" s="5" t="s">
         <v>805</v>
@@ -16085,13 +16089,13 @@
     </row>
     <row r="477" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="B477" s="6" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="C477" s="6" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="D477" s="5" t="s">
         <v>805</v>
@@ -16099,13 +16103,13 @@
     </row>
     <row r="478" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
+        <v>1757</v>
+      </c>
+      <c r="B478" s="6" t="s">
+        <v>1759</v>
+      </c>
+      <c r="C478" s="6" t="s">
         <v>1758</v>
-      </c>
-      <c r="B478" s="6" t="s">
-        <v>1760</v>
-      </c>
-      <c r="C478" s="6" t="s">
-        <v>1759</v>
       </c>
       <c r="D478" s="5" t="s">
         <v>805</v>
@@ -16113,10 +16117,10 @@
     </row>
     <row r="479" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
+        <v>1760</v>
+      </c>
+      <c r="B479" s="6" t="s">
         <v>1761</v>
-      </c>
-      <c r="B479" s="6" t="s">
-        <v>1762</v>
       </c>
       <c r="C479" s="6" t="s">
         <v>146</v>
@@ -16136,10 +16140,10 @@
     </row>
     <row r="480" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
+        <v>1782</v>
+      </c>
+      <c r="B480" s="6" t="s">
         <v>1783</v>
-      </c>
-      <c r="B480" s="6" t="s">
-        <v>1784</v>
       </c>
       <c r="C480" s="6" t="s">
         <v>146</v>
@@ -16159,13 +16163,13 @@
     </row>
     <row r="481" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
+        <v>1784</v>
+      </c>
+      <c r="B481" s="6" t="s">
         <v>1785</v>
       </c>
-      <c r="B481" s="6" t="s">
+      <c r="C481" s="6" t="s">
         <v>1786</v>
-      </c>
-      <c r="C481" s="6" t="s">
-        <v>1787</v>
       </c>
       <c r="D481" s="5" t="s">
         <v>153</v>
@@ -16182,13 +16186,13 @@
     </row>
     <row r="482" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
+        <v>1762</v>
+      </c>
+      <c r="B482" s="6" t="s">
         <v>1763</v>
       </c>
-      <c r="B482" s="6" t="s">
-        <v>1764</v>
-      </c>
       <c r="C482" s="6" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="D482" s="5" t="s">
         <v>805</v>
@@ -16196,13 +16200,13 @@
     </row>
     <row r="483" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
+        <v>1764</v>
+      </c>
+      <c r="B483" s="6" t="s">
         <v>1765</v>
       </c>
-      <c r="B483" s="6" t="s">
+      <c r="C483" s="6" t="s">
         <v>1766</v>
-      </c>
-      <c r="C483" s="6" t="s">
-        <v>1767</v>
       </c>
       <c r="D483" s="5" t="s">
         <v>805</v>
@@ -16210,13 +16214,13 @@
     </row>
     <row r="484" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="B484" s="6" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="C484" s="6" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="D484" s="5" t="s">
         <v>805</v>
@@ -16224,13 +16228,13 @@
     </row>
     <row r="485" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="B485" s="6" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="C485" s="6" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="D485" s="5" t="s">
         <v>805</v>
@@ -16383,13 +16387,13 @@
     </row>
     <row r="496" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="B496" s="6" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="C496" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="D496" s="5" t="s">
         <v>165</v>
@@ -16398,10 +16402,10 @@
         <v>158</v>
       </c>
       <c r="F496" s="3" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
       <c r="G496" s="3" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="498" spans="1:7" x14ac:dyDescent="0.25">
@@ -16446,19 +16450,19 @@
     </row>
     <row r="500" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
+        <v>1499</v>
+      </c>
+      <c r="B500" s="6" t="s">
         <v>1500</v>
       </c>
-      <c r="B500" s="6" t="s">
-        <v>1501</v>
-      </c>
       <c r="C500" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="D500" s="5" t="s">
         <v>151</v>
       </c>
       <c r="E500" s="5" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="F500" s="2">
         <v>100</v>
@@ -16469,19 +16473,19 @@
     </row>
     <row r="501" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="B501" s="6" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="C501" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="D501" s="5" t="s">
         <v>151</v>
       </c>
       <c r="E501" s="5" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="F501" s="2">
         <v>50</v>
@@ -16492,10 +16496,10 @@
     </row>
     <row r="502" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
+        <v>1503</v>
+      </c>
+      <c r="B502" s="6" t="s">
         <v>1504</v>
-      </c>
-      <c r="B502" s="6" t="s">
-        <v>1505</v>
       </c>
       <c r="C502" t="s">
         <v>305</v>
@@ -16504,7 +16508,7 @@
         <v>185</v>
       </c>
       <c r="E502" s="5" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="F502" s="2">
         <v>400</v>
@@ -16515,10 +16519,10 @@
     </row>
     <row r="503" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
+        <v>1505</v>
+      </c>
+      <c r="B503" s="6" t="s">
         <v>1506</v>
-      </c>
-      <c r="B503" s="6" t="s">
-        <v>1507</v>
       </c>
       <c r="C503" t="s">
         <v>305</v>
@@ -16527,7 +16531,7 @@
         <v>185</v>
       </c>
       <c r="E503" s="5" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="F503" s="2">
         <v>100</v>
@@ -16720,13 +16724,13 @@
     </row>
     <row r="515" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
+        <v>1682</v>
+      </c>
+      <c r="B515" s="6" t="s">
         <v>1683</v>
       </c>
-      <c r="B515" s="6" t="s">
-        <v>1684</v>
-      </c>
       <c r="C515" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="D515" s="5" t="s">
         <v>805</v>
@@ -17124,13 +17128,13 @@
     </row>
     <row r="535" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
+        <v>1514</v>
+      </c>
+      <c r="B535" s="6" t="s">
         <v>1515</v>
       </c>
-      <c r="B535" s="6" t="s">
+      <c r="C535" t="s">
         <v>1516</v>
-      </c>
-      <c r="C535" t="s">
-        <v>1517</v>
       </c>
       <c r="D535" s="5" t="s">
         <v>153</v>
@@ -17170,10 +17174,10 @@
     </row>
     <row r="537" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="B537" s="6" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="C537" t="s">
         <v>138</v>
@@ -17233,7 +17237,7 @@
         <v>1304</v>
       </c>
       <c r="B541" s="6" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="C541" t="s">
         <v>179</v>
@@ -17253,19 +17257,19 @@
     </row>
     <row r="542" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="B542" s="6" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="C542" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
       <c r="D542" s="5" t="s">
         <v>1305</v>
       </c>
       <c r="E542" s="5" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="F542" s="2">
         <v>3</v>
@@ -17322,13 +17326,13 @@
     </row>
     <row r="545" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
+        <v>1625</v>
+      </c>
+      <c r="B545" s="6" t="s">
         <v>1626</v>
       </c>
-      <c r="B545" s="6" t="s">
+      <c r="C545" t="s">
         <v>1627</v>
-      </c>
-      <c r="C545" t="s">
-        <v>1628</v>
       </c>
       <c r="D545" s="5" t="s">
         <v>805</v>
@@ -18306,10 +18310,10 @@
     </row>
     <row r="594" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
+        <v>1677</v>
+      </c>
+      <c r="B594" s="6" t="s">
         <v>1678</v>
-      </c>
-      <c r="B594" s="6" t="s">
-        <v>1679</v>
       </c>
       <c r="C594" t="s">
         <v>754</v>
@@ -18329,13 +18333,13 @@
     </row>
     <row r="595" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="B595" s="6" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="C595" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="D595" s="5" t="s">
         <v>805</v>
@@ -18343,13 +18347,13 @@
     </row>
     <row r="596" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
+        <v>1685</v>
+      </c>
+      <c r="B596" s="6" t="s">
+        <v>1693</v>
+      </c>
+      <c r="C596" t="s">
         <v>1686</v>
-      </c>
-      <c r="B596" s="6" t="s">
-        <v>1694</v>
-      </c>
-      <c r="C596" t="s">
-        <v>1687</v>
       </c>
       <c r="D596" s="5" t="s">
         <v>805</v>
@@ -18357,13 +18361,13 @@
     </row>
     <row r="597" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="B597" s="6" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="C597" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="D597" s="5" t="s">
         <v>805</v>
@@ -18371,13 +18375,13 @@
     </row>
     <row r="598" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="B598" s="6" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="C598" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="D598" s="5" t="s">
         <v>805</v>
@@ -18388,7 +18392,7 @@
         <v>283</v>
       </c>
       <c r="B600" s="6" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="C600" t="s">
         <v>138</v>
@@ -18439,10 +18443,10 @@
         <v>290</v>
       </c>
       <c r="B603" s="6" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="C603" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="D603" s="5" t="s">
         <v>805</v>
@@ -18608,13 +18612,13 @@
     </row>
     <row r="611" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B611" s="6" t="s">
         <v>1792</v>
       </c>
-      <c r="B611" s="6" t="s">
+      <c r="C611" t="s">
         <v>1793</v>
-      </c>
-      <c r="C611" t="s">
-        <v>1794</v>
       </c>
       <c r="D611" s="5" t="s">
         <v>153</v>
@@ -18931,10 +18935,10 @@
     </row>
     <row r="627" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
+        <v>1552</v>
+      </c>
+      <c r="B627" s="6" t="s">
         <v>1553</v>
-      </c>
-      <c r="B627" s="6" t="s">
-        <v>1554</v>
       </c>
       <c r="C627" t="s">
         <v>179</v>
@@ -18994,10 +18998,10 @@
     </row>
     <row r="630" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
       <c r="B630" s="6" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="C630" t="s">
         <v>179</v>
@@ -19097,10 +19101,10 @@
     </row>
     <row r="635" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
-        <v>1555</v>
+        <v>1554</v>
       </c>
       <c r="B635" s="6" t="s">
-        <v>1554</v>
+        <v>1553</v>
       </c>
       <c r="C635" t="s">
         <v>179</v>
@@ -19543,7 +19547,7 @@
         <v>114</v>
       </c>
       <c r="B658" s="6" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="C658" t="s">
         <v>138</v>
@@ -19557,10 +19561,10 @@
     </row>
     <row r="659" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A659" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="B659" s="6" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
       <c r="C659" t="s">
         <v>138</v>
@@ -19574,10 +19578,10 @@
     </row>
     <row r="660" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A660" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="B660" s="6" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="C660" t="s">
         <v>138</v>
@@ -19591,10 +19595,10 @@
     </row>
     <row r="661" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A661" t="s">
+        <v>1530</v>
+      </c>
+      <c r="B661" s="6" t="s">
         <v>1531</v>
-      </c>
-      <c r="B661" s="6" t="s">
-        <v>1532</v>
       </c>
       <c r="C661" t="s">
         <v>138</v>
@@ -19611,7 +19615,7 @@
         <v>1286</v>
       </c>
       <c r="B662" s="6" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
       <c r="C662" t="s">
         <v>138</v>
@@ -19625,10 +19629,10 @@
     </row>
     <row r="663" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="B663" s="6" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="C663" t="s">
         <v>138</v>
@@ -19964,10 +19968,10 @@
     </row>
     <row r="681" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A681" t="s">
+        <v>1742</v>
+      </c>
+      <c r="B681" s="6" t="s">
         <v>1743</v>
-      </c>
-      <c r="B681" s="6" t="s">
-        <v>1744</v>
       </c>
       <c r="C681" t="s">
         <v>138</v>
@@ -19998,13 +20002,13 @@
     </row>
     <row r="683" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A683" t="s">
+        <v>1739</v>
+      </c>
+      <c r="B683" s="6" t="s">
         <v>1740</v>
       </c>
-      <c r="B683" s="6" t="s">
+      <c r="C683" t="s">
         <v>1741</v>
-      </c>
-      <c r="C683" t="s">
-        <v>1742</v>
       </c>
       <c r="D683" s="5" t="s">
         <v>153</v>
@@ -20081,7 +20085,7 @@
         <v>962</v>
       </c>
       <c r="B687" s="6" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="C687" t="s">
         <v>146</v>
@@ -20104,7 +20108,7 @@
         <v>1002</v>
       </c>
       <c r="B688" s="6" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="C688" t="s">
         <v>1003</v>
@@ -20178,10 +20182,10 @@
     </row>
     <row r="692" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A692" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="B692" s="6" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="C692" t="s">
         <v>138</v>
@@ -20195,19 +20199,19 @@
     </row>
     <row r="693" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A693" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="B693" s="6" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="C693" t="s">
         <v>146</v>
       </c>
       <c r="D693" s="5" t="s">
+        <v>1364</v>
+      </c>
+      <c r="E693" s="5" t="s">
         <v>1365</v>
-      </c>
-      <c r="E693" s="5" t="s">
-        <v>1366</v>
       </c>
       <c r="F693" s="2">
         <v>1</v>
@@ -20218,19 +20222,19 @@
     </row>
     <row r="694" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A694" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="B694" s="6" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="C694" t="s">
         <v>146</v>
       </c>
       <c r="D694" s="5" t="s">
+        <v>1364</v>
+      </c>
+      <c r="E694" s="5" t="s">
         <v>1365</v>
-      </c>
-      <c r="E694" s="5" t="s">
-        <v>1366</v>
       </c>
       <c r="F694" s="2">
         <v>1</v>
@@ -20241,19 +20245,19 @@
     </row>
     <row r="695" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A695" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="B695" s="6" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="C695" t="s">
         <v>146</v>
       </c>
       <c r="D695" s="5" t="s">
+        <v>1364</v>
+      </c>
+      <c r="E695" s="5" t="s">
         <v>1365</v>
-      </c>
-      <c r="E695" s="5" t="s">
-        <v>1366</v>
       </c>
       <c r="F695" s="2">
         <v>1</v>
@@ -20264,19 +20268,19 @@
     </row>
     <row r="696" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A696" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="B696" s="6" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="C696" t="s">
         <v>146</v>
       </c>
       <c r="D696" s="5" t="s">
+        <v>1364</v>
+      </c>
+      <c r="E696" s="5" t="s">
         <v>1365</v>
-      </c>
-      <c r="E696" s="5" t="s">
-        <v>1366</v>
       </c>
       <c r="F696" s="2">
         <v>1</v>
@@ -20287,19 +20291,19 @@
     </row>
     <row r="697" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A697" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="B697" s="6" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="C697" t="s">
         <v>146</v>
       </c>
       <c r="D697" s="5" t="s">
+        <v>1364</v>
+      </c>
+      <c r="E697" s="5" t="s">
         <v>1365</v>
-      </c>
-      <c r="E697" s="5" t="s">
-        <v>1366</v>
       </c>
       <c r="F697" s="2">
         <v>1</v>
@@ -20310,19 +20314,19 @@
     </row>
     <row r="698" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A698" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="B698" s="6" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="C698" t="s">
         <v>146</v>
       </c>
       <c r="D698" s="5" t="s">
+        <v>1364</v>
+      </c>
+      <c r="E698" s="5" t="s">
         <v>1365</v>
-      </c>
-      <c r="E698" s="5" t="s">
-        <v>1366</v>
       </c>
       <c r="F698" s="2">
         <v>1</v>
@@ -20333,10 +20337,10 @@
     </row>
     <row r="699" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A699" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="B699" s="6" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="C699" t="s">
         <v>140</v>
@@ -20350,10 +20354,10 @@
     </row>
     <row r="700" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A700" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="B700" s="6" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="C700" t="s">
         <v>146</v>
@@ -20373,10 +20377,10 @@
     </row>
     <row r="701" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A701" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="B701" s="6" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="C701" t="s">
         <v>1161</v>
@@ -20393,10 +20397,10 @@
     </row>
     <row r="702" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A702" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="B702" s="6" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="C702" t="s">
         <v>140</v>
@@ -20410,10 +20414,10 @@
     </row>
     <row r="703" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A703" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="B703" s="6" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="C703" t="s">
         <v>146</v>
@@ -20433,10 +20437,10 @@
     </row>
     <row r="704" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A704" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="B704" s="6" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="C704" t="s">
         <v>1161</v>
@@ -20453,10 +20457,10 @@
     </row>
     <row r="705" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A705" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="B705" s="6" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="C705" t="s">
         <v>140</v>
@@ -20470,10 +20474,10 @@
     </row>
     <row r="706" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A706" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="B706" s="6" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="C706" t="s">
         <v>146</v>
@@ -20493,10 +20497,10 @@
     </row>
     <row r="707" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A707" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="B707" s="6" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="C707" t="s">
         <v>1161</v>
@@ -20513,13 +20517,13 @@
     </row>
     <row r="708" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A708" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B708" s="6" t="s">
+        <v>1387</v>
+      </c>
+      <c r="C708" t="s">
         <v>1386</v>
-      </c>
-      <c r="B708" s="6" t="s">
-        <v>1388</v>
-      </c>
-      <c r="C708" t="s">
-        <v>1387</v>
       </c>
       <c r="D708" s="5" t="s">
         <v>805</v>
@@ -20533,10 +20537,10 @@
     </row>
     <row r="709" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A709" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="B709" s="6" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="C709" t="s">
         <v>167</v>
@@ -20556,10 +20560,10 @@
     </row>
     <row r="710" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A710" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="B710" s="6" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="C710" t="s">
         <v>138</v>
@@ -20573,10 +20577,10 @@
     </row>
     <row r="711" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A711" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="B711" s="6" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="C711" t="s">
         <v>138</v>
@@ -20590,10 +20594,10 @@
     </row>
     <row r="712" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A712" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="B712" s="6" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="C712" t="s">
         <v>138</v>
@@ -20607,10 +20611,10 @@
     </row>
     <row r="713" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A713" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="B713" s="6" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="C713" t="s">
         <v>138</v>
@@ -20624,10 +20628,10 @@
     </row>
     <row r="714" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A714" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="B714" s="6" t="s">
-        <v>1614</v>
+        <v>1613</v>
       </c>
       <c r="C714" t="s">
         <v>138</v>
@@ -20641,10 +20645,10 @@
     </row>
     <row r="715" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A715" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
       <c r="B715" s="6" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="C715" t="s">
         <v>138</v>
@@ -20658,10 +20662,10 @@
     </row>
     <row r="716" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A716" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="B716" s="6" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="C716" t="s">
         <v>138</v>
@@ -20675,10 +20679,10 @@
     </row>
     <row r="717" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A717" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="B717" s="6" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="C717" t="s">
         <v>138</v>
@@ -20692,10 +20696,10 @@
     </row>
     <row r="718" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A718" t="s">
+        <v>1650</v>
+      </c>
+      <c r="B718" s="6" t="s">
         <v>1651</v>
-      </c>
-      <c r="B718" s="6" t="s">
-        <v>1652</v>
       </c>
       <c r="C718" t="s">
         <v>138</v>
@@ -20709,19 +20713,19 @@
     </row>
     <row r="719" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A719" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="B719" s="6" t="s">
+        <v>1696</v>
+      </c>
+      <c r="C719" t="s">
         <v>1697</v>
-      </c>
-      <c r="C719" t="s">
-        <v>1698</v>
       </c>
       <c r="D719" s="5" t="s">
         <v>185</v>
       </c>
       <c r="E719" s="5" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="F719" s="2">
         <v>100</v>
@@ -20732,10 +20736,10 @@
     </row>
     <row r="720" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A720" t="s">
+        <v>1755</v>
+      </c>
+      <c r="B720" s="6" t="s">
         <v>1756</v>
-      </c>
-      <c r="B720" s="6" t="s">
-        <v>1757</v>
       </c>
       <c r="C720" t="s">
         <v>138</v>
@@ -21372,10 +21376,10 @@
     </row>
     <row r="755" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A755" t="s">
+        <v>1710</v>
+      </c>
+      <c r="B755" s="6" t="s">
         <v>1711</v>
-      </c>
-      <c r="B755" s="6" t="s">
-        <v>1712</v>
       </c>
       <c r="C755" t="s">
         <v>167</v>
@@ -21392,10 +21396,10 @@
     </row>
     <row r="756" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A756" t="s">
+        <v>1712</v>
+      </c>
+      <c r="B756" s="6" t="s">
         <v>1713</v>
-      </c>
-      <c r="B756" s="6" t="s">
-        <v>1714</v>
       </c>
       <c r="C756" t="s">
         <v>145</v>
@@ -21412,10 +21416,10 @@
     </row>
     <row r="757" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A757" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="B757" s="6" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="C757" t="s">
         <v>167</v>
@@ -21432,10 +21436,10 @@
     </row>
     <row r="758" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A758" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="B758" s="6" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="C758" t="s">
         <v>167</v>
@@ -21452,10 +21456,10 @@
     </row>
     <row r="759" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A759" t="s">
+        <v>1715</v>
+      </c>
+      <c r="B759" s="6" t="s">
         <v>1716</v>
-      </c>
-      <c r="B759" s="6" t="s">
-        <v>1717</v>
       </c>
       <c r="C759" t="s">
         <v>138</v>
@@ -21906,10 +21910,10 @@
     </row>
     <row r="786" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A786" t="s">
+        <v>1517</v>
+      </c>
+      <c r="B786" s="6" t="s">
         <v>1518</v>
-      </c>
-      <c r="B786" s="6" t="s">
-        <v>1519</v>
       </c>
       <c r="C786" s="6" t="s">
         <v>146</v>
@@ -21929,10 +21933,10 @@
     </row>
     <row r="787" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A787" t="s">
+        <v>1519</v>
+      </c>
+      <c r="B787" s="6" t="s">
         <v>1520</v>
-      </c>
-      <c r="B787" s="6" t="s">
-        <v>1521</v>
       </c>
       <c r="C787" s="6" t="s">
         <v>146</v>
@@ -21952,16 +21956,16 @@
     </row>
     <row r="788" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A788" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="B788" s="6" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="C788" s="6" t="s">
         <v>146</v>
       </c>
       <c r="D788" s="5" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="E788" s="5" t="s">
         <v>267</v>
@@ -21975,10 +21979,10 @@
     </row>
     <row r="789" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A789" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="B789" s="6" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="C789" s="6" t="s">
         <v>146</v>
@@ -21998,10 +22002,10 @@
     </row>
     <row r="790" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A790" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="B790" s="6" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="C790" s="6" t="s">
         <v>146</v>
@@ -22044,10 +22048,10 @@
     </row>
     <row r="792" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A792" t="s">
+        <v>1622</v>
+      </c>
+      <c r="B792" s="6" t="s">
         <v>1623</v>
-      </c>
-      <c r="B792" s="6" t="s">
-        <v>1624</v>
       </c>
     </row>
     <row r="793" spans="1:7" x14ac:dyDescent="0.25">
@@ -22138,10 +22142,10 @@
     </row>
     <row r="797" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A797" t="s">
+        <v>1357</v>
+      </c>
+      <c r="B797" s="6" t="s">
         <v>1358</v>
-      </c>
-      <c r="B797" s="6" t="s">
-        <v>1359</v>
       </c>
       <c r="C797" s="6" t="s">
         <v>138</v>
@@ -22549,7 +22553,7 @@
         <v>1110</v>
       </c>
       <c r="C816" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="D816" s="5" t="s">
         <v>805</v>
@@ -22563,7 +22567,7 @@
         <v>1129</v>
       </c>
       <c r="C817" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="D817" s="5" t="s">
         <v>805</v>
@@ -22577,7 +22581,7 @@
         <v>1131</v>
       </c>
       <c r="C818" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="D818" s="5" t="s">
         <v>805</v>
@@ -22585,13 +22589,13 @@
     </row>
     <row r="819" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A819" t="s">
+        <v>1390</v>
+      </c>
+      <c r="B819" s="6" t="s">
         <v>1391</v>
       </c>
-      <c r="B819" s="6" t="s">
-        <v>1392</v>
-      </c>
       <c r="C819" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="D819" s="5" t="s">
         <v>805</v>
@@ -22599,13 +22603,13 @@
     </row>
     <row r="820" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A820" t="s">
+        <v>1404</v>
+      </c>
+      <c r="B820" s="6" t="s">
         <v>1405</v>
       </c>
-      <c r="B820" s="6" t="s">
-        <v>1406</v>
-      </c>
       <c r="C820" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="D820" s="5" t="s">
         <v>805</v>
@@ -22619,7 +22623,7 @@
         <v>1118</v>
       </c>
       <c r="C821" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="D821" s="5" t="s">
         <v>805</v>
@@ -22633,7 +22637,7 @@
         <v>1120</v>
       </c>
       <c r="C822" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="D822" s="5" t="s">
         <v>805</v>
@@ -22647,7 +22651,7 @@
         <v>1104</v>
       </c>
       <c r="C823" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="D823" s="5" t="s">
         <v>805</v>
@@ -22661,7 +22665,7 @@
         <v>1102</v>
       </c>
       <c r="C824" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="D824" s="5" t="s">
         <v>805</v>
@@ -22675,7 +22679,7 @@
         <v>1127</v>
       </c>
       <c r="C825" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="D825" s="5" t="s">
         <v>805</v>
@@ -22689,7 +22693,7 @@
         <v>1098</v>
       </c>
       <c r="C826" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="D826" s="5" t="s">
         <v>805</v>
@@ -22703,7 +22707,7 @@
         <v>1100</v>
       </c>
       <c r="C827" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="D827" s="5" t="s">
         <v>805</v>
@@ -22711,13 +22715,13 @@
     </row>
     <row r="828" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A828" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B828" s="6" t="s">
         <v>1407</v>
       </c>
-      <c r="B828" s="6" t="s">
-        <v>1408</v>
-      </c>
       <c r="C828" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="D828" s="5" t="s">
         <v>805</v>
@@ -22725,13 +22729,13 @@
     </row>
     <row r="829" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A829" t="s">
+        <v>1400</v>
+      </c>
+      <c r="B829" s="6" t="s">
         <v>1401</v>
       </c>
-      <c r="B829" s="6" t="s">
-        <v>1402</v>
-      </c>
       <c r="C829" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="D829" s="5" t="s">
         <v>805</v>
@@ -22745,7 +22749,7 @@
         <v>1108</v>
       </c>
       <c r="C830" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="D830" s="5" t="s">
         <v>805</v>
@@ -22753,13 +22757,13 @@
     </row>
     <row r="831" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A831" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B831" s="6" t="s">
         <v>1415</v>
       </c>
-      <c r="B831" s="6" t="s">
-        <v>1416</v>
-      </c>
       <c r="C831" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="D831" s="5" t="s">
         <v>805</v>
@@ -22773,7 +22777,7 @@
         <v>1094</v>
       </c>
       <c r="C832" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="D832" s="5" t="s">
         <v>805</v>
@@ -22781,13 +22785,13 @@
     </row>
     <row r="833" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A833" t="s">
+        <v>1394</v>
+      </c>
+      <c r="B833" s="6" t="s">
         <v>1395</v>
       </c>
-      <c r="B833" s="6" t="s">
+      <c r="C833" t="s">
         <v>1396</v>
-      </c>
-      <c r="C833" t="s">
-        <v>1397</v>
       </c>
       <c r="D833" s="5" t="s">
         <v>805</v>
@@ -22795,13 +22799,13 @@
     </row>
     <row r="834" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A834" t="s">
+        <v>1402</v>
+      </c>
+      <c r="B834" s="6" t="s">
         <v>1403</v>
       </c>
-      <c r="B834" s="6" t="s">
-        <v>1404</v>
-      </c>
       <c r="C834" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="D834" s="5" t="s">
         <v>805</v>
@@ -22815,7 +22819,7 @@
         <v>1106</v>
       </c>
       <c r="C835" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="D835" s="5" t="s">
         <v>805</v>
@@ -22829,7 +22833,7 @@
         <v>1112</v>
       </c>
       <c r="C837" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="D837" s="5" t="s">
         <v>805</v>
@@ -22843,7 +22847,7 @@
         <v>1122</v>
       </c>
       <c r="C838" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="D838" s="5" t="s">
         <v>805</v>
@@ -22857,7 +22861,7 @@
         <v>1092</v>
       </c>
       <c r="C839" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="D839" s="5" t="s">
         <v>805</v>
@@ -22865,13 +22869,13 @@
     </row>
     <row r="840" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A840" t="s">
+        <v>1708</v>
+      </c>
+      <c r="B840" s="6" t="s">
         <v>1709</v>
       </c>
-      <c r="B840" s="6" t="s">
-        <v>1710</v>
-      </c>
       <c r="C840" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="D840" s="5" t="s">
         <v>805</v>
@@ -22885,7 +22889,7 @@
         <v>1288</v>
       </c>
       <c r="C841" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="D841" s="5" t="s">
         <v>805</v>
@@ -22899,7 +22903,7 @@
         <v>1116</v>
       </c>
       <c r="C842" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="D842" s="5" t="s">
         <v>805</v>
@@ -22913,7 +22917,7 @@
         <v>1134</v>
       </c>
       <c r="C843" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="D843" s="5" t="s">
         <v>805</v>
@@ -22921,13 +22925,13 @@
     </row>
     <row r="844" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A844" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B844" s="6" t="s">
         <v>1409</v>
       </c>
-      <c r="B844" s="6" t="s">
-        <v>1410</v>
-      </c>
       <c r="C844" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="D844" s="5" t="s">
         <v>805</v>
@@ -22935,13 +22939,13 @@
     </row>
     <row r="845" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A845" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B845" s="6" t="s">
         <v>1411</v>
       </c>
-      <c r="B845" s="6" t="s">
-        <v>1412</v>
-      </c>
       <c r="C845" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="D845" s="5" t="s">
         <v>805</v>
@@ -22955,7 +22959,7 @@
         <v>1124</v>
       </c>
       <c r="C846" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="D846" s="5" t="s">
         <v>805</v>
@@ -22969,7 +22973,7 @@
         <v>1096</v>
       </c>
       <c r="C847" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="D847" s="5" t="s">
         <v>805</v>
@@ -22983,7 +22987,7 @@
         <v>1114</v>
       </c>
       <c r="C848" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="D848" s="5" t="s">
         <v>805</v>
@@ -22991,36 +22995,36 @@
     </row>
     <row r="850" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A850" t="s">
-        <v>1319</v>
+        <v>1699</v>
       </c>
       <c r="B850" s="6" t="s">
-        <v>1320</v>
+        <v>1703</v>
       </c>
       <c r="C850" t="s">
-        <v>138</v>
-      </c>
-      <c r="F850" s="2">
-        <v>0</v>
-      </c>
-      <c r="G850" s="2">
-        <v>0</v>
+        <v>140</v>
+      </c>
+      <c r="F850" s="15" t="s">
+        <v>1700</v>
+      </c>
+      <c r="G850" s="15" t="s">
+        <v>1700</v>
       </c>
     </row>
     <row r="851" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A851" t="s">
-        <v>1700</v>
+        <v>1320</v>
       </c>
       <c r="B851" s="6" t="s">
-        <v>1704</v>
+        <v>1701</v>
       </c>
       <c r="C851" t="s">
         <v>140</v>
       </c>
       <c r="F851" s="15" t="s">
-        <v>1701</v>
+        <v>1474</v>
       </c>
       <c r="G851" s="15" t="s">
-        <v>1701</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="852" spans="1:11" x14ac:dyDescent="0.25">
@@ -23033,10 +23037,10 @@
       <c r="C852" t="s">
         <v>140</v>
       </c>
-      <c r="F852" s="15" t="s">
+      <c r="F852" s="2" t="s">
         <v>1475</v>
       </c>
-      <c r="G852" s="15" t="s">
+      <c r="G852" s="2" t="s">
         <v>1475</v>
       </c>
     </row>
@@ -23045,7 +23049,7 @@
         <v>1322</v>
       </c>
       <c r="B853" s="6" t="s">
-        <v>1703</v>
+        <v>1323</v>
       </c>
       <c r="C853" t="s">
         <v>140</v>
@@ -23059,94 +23063,112 @@
     </row>
     <row r="854" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A854" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="B854" s="6" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="C854" t="s">
-        <v>140</v>
-      </c>
-      <c r="F854" s="2" t="s">
-        <v>1477</v>
-      </c>
-      <c r="G854" s="2" t="s">
-        <v>1477</v>
+        <v>1326</v>
+      </c>
+      <c r="F854" s="2">
+        <v>256</v>
+      </c>
+      <c r="G854" s="2">
+        <v>256</v>
       </c>
     </row>
     <row r="855" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A855" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="B855" s="6" t="s">
-        <v>1326</v>
+        <v>1328</v>
       </c>
       <c r="C855" t="s">
-        <v>1327</v>
+        <v>146</v>
+      </c>
+      <c r="D855" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E855" s="5" t="s">
+        <v>1329</v>
       </c>
       <c r="F855" s="2">
-        <v>256</v>
+        <v>3</v>
       </c>
       <c r="G855" s="2">
-        <v>256</v>
+        <v>3</v>
+      </c>
+      <c r="H855" s="2">
+        <v>4</v>
+      </c>
+      <c r="J855" s="2">
+        <v>4</v>
       </c>
     </row>
     <row r="856" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A856" t="s">
-        <v>1328</v>
+        <v>1330</v>
       </c>
       <c r="B856" s="6" t="s">
-        <v>1329</v>
+        <v>1331</v>
       </c>
       <c r="C856" t="s">
         <v>146</v>
       </c>
       <c r="D856" s="5" t="s">
-        <v>153</v>
+        <v>1332</v>
       </c>
       <c r="E856" s="5" t="s">
-        <v>1330</v>
-      </c>
-      <c r="F856" s="2">
-        <v>3</v>
-      </c>
-      <c r="G856" s="2">
-        <v>3</v>
+        <v>1333</v>
       </c>
       <c r="H856" s="2">
-        <v>4</v>
+        <v>59</v>
+      </c>
+      <c r="I856" s="2">
+        <v>64</v>
       </c>
       <c r="J856" s="2">
-        <v>4</v>
+        <v>56</v>
+      </c>
+      <c r="K856" s="2">
+        <v>63.5</v>
       </c>
     </row>
     <row r="857" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A857" t="s">
-        <v>1331</v>
+        <v>1334</v>
       </c>
       <c r="B857" s="6" t="s">
-        <v>1332</v>
+        <v>1737</v>
       </c>
       <c r="C857" t="s">
         <v>146</v>
       </c>
       <c r="D857" s="5" t="s">
+        <v>1332</v>
+      </c>
+      <c r="E857" s="5" t="s">
         <v>1333</v>
       </c>
-      <c r="E857" s="5" t="s">
-        <v>1334</v>
+      <c r="F857" s="2">
+        <v>90</v>
+      </c>
+      <c r="G857" s="2">
+        <v>90</v>
       </c>
       <c r="H857" s="2">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="I857" s="2">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="J857" s="2">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="K857" s="2">
-        <v>63.5</v>
+        <v>73</v>
       </c>
     </row>
     <row r="858" spans="1:11" x14ac:dyDescent="0.25">
@@ -23160,28 +23182,28 @@
         <v>146</v>
       </c>
       <c r="D858" s="5" t="s">
+        <v>1332</v>
+      </c>
+      <c r="E858" s="5" t="s">
         <v>1333</v>
       </c>
-      <c r="E858" s="5" t="s">
-        <v>1334</v>
-      </c>
       <c r="F858" s="2">
-        <v>90</v>
+        <v>-90</v>
       </c>
       <c r="G858" s="2">
-        <v>90</v>
+        <v>-90</v>
       </c>
       <c r="H858" s="2">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="I858" s="2">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="J858" s="2">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="K858" s="2">
-        <v>73</v>
+        <v>51</v>
       </c>
     </row>
     <row r="859" spans="1:11" x14ac:dyDescent="0.25">
@@ -23189,34 +23211,28 @@
         <v>1336</v>
       </c>
       <c r="B859" s="6" t="s">
-        <v>1739</v>
+        <v>1331</v>
       </c>
       <c r="C859" t="s">
         <v>146</v>
       </c>
       <c r="D859" s="5" t="s">
-        <v>1333</v>
+        <v>1341</v>
       </c>
       <c r="E859" s="5" t="s">
-        <v>1334</v>
-      </c>
-      <c r="F859" s="2">
-        <v>-90</v>
-      </c>
-      <c r="G859" s="2">
-        <v>-90</v>
+        <v>1342</v>
       </c>
       <c r="H859" s="2">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="I859" s="2">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="J859" s="2">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="K859" s="2">
-        <v>51</v>
+        <v>15</v>
       </c>
     </row>
     <row r="860" spans="1:11" x14ac:dyDescent="0.25">
@@ -23224,28 +23240,34 @@
         <v>1337</v>
       </c>
       <c r="B860" s="6" t="s">
-        <v>1332</v>
+        <v>1339</v>
       </c>
       <c r="C860" t="s">
         <v>146</v>
       </c>
       <c r="D860" s="5" t="s">
+        <v>1341</v>
+      </c>
+      <c r="E860" s="5" t="s">
         <v>1342</v>
       </c>
-      <c r="E860" s="5" t="s">
-        <v>1343</v>
+      <c r="F860" s="2">
+        <v>180</v>
+      </c>
+      <c r="G860" s="2">
+        <v>180</v>
       </c>
       <c r="H860" s="2">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="I860" s="2">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="J860" s="2">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="K860" s="2">
-        <v>15</v>
+        <v>32</v>
       </c>
     </row>
     <row r="861" spans="1:11" x14ac:dyDescent="0.25">
@@ -23259,109 +23281,97 @@
         <v>146</v>
       </c>
       <c r="D861" s="5" t="s">
+        <v>1341</v>
+      </c>
+      <c r="E861" s="5" t="s">
         <v>1342</v>
       </c>
-      <c r="E861" s="5" t="s">
-        <v>1343</v>
-      </c>
       <c r="F861" s="2">
-        <v>180</v>
+        <v>-180</v>
       </c>
       <c r="G861" s="2">
-        <v>180</v>
+        <v>-180</v>
       </c>
       <c r="H861" s="2">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="I861" s="2">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="J861" s="2">
-        <v>20</v>
+        <v>-2</v>
       </c>
       <c r="K861" s="2">
-        <v>32</v>
+        <v>2</v>
       </c>
     </row>
     <row r="862" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A862" t="s">
-        <v>1339</v>
+        <v>1343</v>
       </c>
       <c r="B862" s="6" t="s">
-        <v>1341</v>
+        <v>1344</v>
       </c>
       <c r="C862" t="s">
-        <v>146</v>
+        <v>1346</v>
       </c>
       <c r="D862" s="5" t="s">
-        <v>1342</v>
+        <v>151</v>
       </c>
       <c r="E862" s="5" t="s">
-        <v>1343</v>
+        <v>1345</v>
       </c>
       <c r="F862" s="2">
-        <v>-180</v>
+        <v>50</v>
       </c>
       <c r="G862" s="2">
-        <v>-180</v>
-      </c>
-      <c r="H862" s="2">
-        <v>15</v>
-      </c>
-      <c r="I862" s="2">
-        <v>10</v>
-      </c>
-      <c r="J862" s="2">
-        <v>-2</v>
-      </c>
-      <c r="K862" s="2">
-        <v>2</v>
+        <v>50</v>
       </c>
     </row>
     <row r="863" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A863" t="s">
-        <v>1344</v>
+        <v>1347</v>
       </c>
       <c r="B863" s="6" t="s">
-        <v>1345</v>
+        <v>1348</v>
       </c>
       <c r="C863" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="D863" s="5" t="s">
         <v>151</v>
       </c>
       <c r="E863" s="5" t="s">
-        <v>1346</v>
+        <v>158</v>
       </c>
       <c r="F863" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G863" s="2">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="864" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A864" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="B864" s="6" t="s">
-        <v>1349</v>
+        <v>1352</v>
       </c>
       <c r="C864" t="s">
-        <v>1347</v>
+        <v>146</v>
       </c>
       <c r="D864" s="5" t="s">
-        <v>151</v>
+        <v>1353</v>
       </c>
       <c r="E864" s="5" t="s">
-        <v>158</v>
+        <v>1354</v>
       </c>
       <c r="F864" s="2">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G864" s="2">
-        <v>100</v>
+        <v>40</v>
       </c>
     </row>
     <row r="865" spans="1:7" x14ac:dyDescent="0.25">
@@ -23369,22 +23379,22 @@
         <v>1350</v>
       </c>
       <c r="B865" s="6" t="s">
-        <v>1353</v>
+        <v>1355</v>
       </c>
       <c r="C865" t="s">
         <v>146</v>
       </c>
       <c r="D865" s="5" t="s">
+        <v>1353</v>
+      </c>
+      <c r="E865" s="5" t="s">
         <v>1354</v>
       </c>
-      <c r="E865" s="5" t="s">
-        <v>1355</v>
-      </c>
       <c r="F865" s="2">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G865" s="2">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="866" spans="1:7" x14ac:dyDescent="0.25">
@@ -23398,1144 +23408,1122 @@
         <v>146</v>
       </c>
       <c r="D866" s="5" t="s">
+        <v>1353</v>
+      </c>
+      <c r="E866" s="5" t="s">
         <v>1354</v>
       </c>
-      <c r="E866" s="5" t="s">
-        <v>1355</v>
-      </c>
       <c r="F866" s="2">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="G866" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="867" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A867" t="s">
-        <v>1352</v>
-      </c>
-      <c r="B867" s="6" t="s">
-        <v>1357</v>
-      </c>
-      <c r="C867" t="s">
-        <v>146</v>
-      </c>
-      <c r="D867" s="5" t="s">
-        <v>1354</v>
-      </c>
-      <c r="E867" s="5" t="s">
-        <v>1355</v>
-      </c>
-      <c r="F867" s="2">
         <v>95</v>
       </c>
-      <c r="G867" s="2">
-        <v>95</v>
-      </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="3">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:K1"/>
   </mergeCells>
-  <conditionalFormatting sqref="H806:I818 H830:I830 H835:I839 H846:I859 H662:I682 H1:I17 H628:I629 H636:I658 H631:I634 H276:I276 H235:I262 H268:I274 H279:I297 H543:I593 H790:I802 H821:I827 H378:I380 H486:I514 H314:I362 H300:I312 H698:I757 H599:I626 H516:I541 H365:I376 H841:I843 H20:I35 H186:I233 H759:I785 H684:I693 H37:I44 H467:I468 H383:I465 H48:I182 H863:I1048576">
-    <cfRule type="expression" dxfId="328" priority="323">
+  <conditionalFormatting sqref="H806:I818 H830:I830 H835:I839 H662:I682 H1:I17 H628:I629 H636:I658 H631:I634 H276:I276 H235:I262 H268:I274 H279:I297 H543:I593 H790:I802 H821:I827 H378:I380 H486:I514 H314:I362 H300:I312 H698:I757 H599:I626 H516:I541 H365:I376 H841:I843 H20:I35 H186:I233 H759:I785 H684:I693 H37:I44 H467:I468 H383:I465 H48:I182 H846:I858 H862:I1048576">
+    <cfRule type="expression" dxfId="329" priority="323">
       <formula>H1=$F1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J806:K818 J830:K830 J835:K839 J846:K859 J662:K682 J1:K17 J628:K629 J636:K658 J631:K634 J276:K276 J235:K262 J268:K274 J279:K297 J543:K593 J790:K802 J821:K827 J378:K380 J486:K514 J314:K362 J300:K312 J698:K757 J599:K626 J516:K541 J365:K376 J841:K843 J20:K35 J186:K233 J759:K785 J684:K693 J37:K44 J467:K468 J383:K465 J48:K182 J863:K1048576">
-    <cfRule type="expression" dxfId="327" priority="324">
+  <conditionalFormatting sqref="J806:K818 J830:K830 J835:K839 J662:K682 J1:K17 J628:K629 J636:K658 J631:K634 J276:K276 J235:K262 J268:K274 J279:K297 J543:K593 J790:K802 J821:K827 J378:K380 J486:K514 J314:K362 J300:K312 J698:K757 J599:K626 J516:K541 J365:K376 J841:K843 J20:K35 J186:K233 J759:K785 J684:K693 J37:K44 J467:K468 J383:K465 J48:K182 J846:K858 J862:K1048576">
+    <cfRule type="expression" dxfId="328" priority="324">
       <formula>J1=$G1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A863:A1404 A806:A818 A830 A835:A839 A349:A352 A250:A254 A354:A355 A357:A362 A371:A376 A327:A347 A310:A312 A504:A514 A846:A859 A29:A35 A662:A682 A235:A248 A378:A380 A628:A629 A636:A658 A631:A634 A257:A262 A276 A268:A274 A279:A296 A721:A757 A543:A593 A790:A802 A821:A827 A463:A465 A397:A458 A460:A461 A486:A500 A314:A324 A698:A699 A300:A308 A708:A710 A599:A626 A516:A541 A365:A369 A841:A843 A3:A17 A20:A27 A186:A233 A759:A785 A684:A693 A37:A44 A467:A468 A383:A391 A48:A182">
-    <cfRule type="expression" dxfId="326" priority="326">
+  <conditionalFormatting sqref="A862:A1403 A806:A818 A830 A835:A839 A349:A352 A250:A254 A354:A355 A357:A362 A371:A376 A327:A347 A310:A312 A504:A514 A29:A35 A662:A682 A235:A248 A378:A380 A628:A629 A636:A658 A631:A634 A257:A262 A276 A268:A274 A279:A296 A721:A757 A543:A593 A790:A802 A821:A827 A463:A465 A397:A458 A460:A461 A486:A500 A314:A324 A698:A699 A300:A308 A708:A710 A599:A626 A516:A541 A365:A369 A841:A843 A3:A17 A20:A27 A186:A233 A759:A785 A684:A693 A37:A44 A467:A468 A383:A391 A48:A182 A846:A858">
+    <cfRule type="expression" dxfId="327" priority="326">
       <formula>F3&lt;&gt;G3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H803:I803">
-    <cfRule type="expression" dxfId="325" priority="314">
+    <cfRule type="expression" dxfId="326" priority="314">
       <formula>H803=$F803</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J803:K803">
-    <cfRule type="expression" dxfId="324" priority="315">
+    <cfRule type="expression" dxfId="325" priority="315">
       <formula>J803=$G803</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A803">
-    <cfRule type="expression" dxfId="323" priority="316">
+    <cfRule type="expression" dxfId="324" priority="316">
       <formula>F803&lt;&gt;G803</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H804:I804">
-    <cfRule type="expression" dxfId="322" priority="311">
+    <cfRule type="expression" dxfId="323" priority="311">
       <formula>H804=$F804</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J804:K804">
-    <cfRule type="expression" dxfId="321" priority="312">
+    <cfRule type="expression" dxfId="322" priority="312">
       <formula>J804=$G804</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A804">
-    <cfRule type="expression" dxfId="320" priority="313">
+    <cfRule type="expression" dxfId="321" priority="313">
       <formula>F804&lt;&gt;G804</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H805:I805">
-    <cfRule type="expression" dxfId="319" priority="308">
+    <cfRule type="expression" dxfId="320" priority="308">
       <formula>H805=$F805</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J805:K805">
-    <cfRule type="expression" dxfId="318" priority="309">
+    <cfRule type="expression" dxfId="319" priority="309">
       <formula>J805=$G805</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A805">
-    <cfRule type="expression" dxfId="317" priority="310">
+    <cfRule type="expression" dxfId="318" priority="310">
       <formula>F805&lt;&gt;G805</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H860:I862">
-    <cfRule type="expression" dxfId="316" priority="305">
-      <formula>H860=$F860</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J860:K862">
-    <cfRule type="expression" dxfId="315" priority="306">
-      <formula>J860=$G860</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A860:A862">
-    <cfRule type="expression" dxfId="314" priority="307">
-      <formula>F860&lt;&gt;G860</formula>
+  <conditionalFormatting sqref="H859:I861">
+    <cfRule type="expression" dxfId="317" priority="305">
+      <formula>H859=$F859</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J859:K861">
+    <cfRule type="expression" dxfId="316" priority="306">
+      <formula>J859=$G859</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A859:A861">
+    <cfRule type="expression" dxfId="315" priority="307">
+      <formula>F859&lt;&gt;G859</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H695:I695">
-    <cfRule type="expression" dxfId="313" priority="302">
+    <cfRule type="expression" dxfId="314" priority="302">
       <formula>H695=$F695</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J695:K695">
-    <cfRule type="expression" dxfId="312" priority="303">
+    <cfRule type="expression" dxfId="313" priority="303">
       <formula>J695=$G695</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A695">
-    <cfRule type="expression" dxfId="311" priority="304">
+    <cfRule type="expression" dxfId="312" priority="304">
       <formula>F695&lt;&gt;G695</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H694:I694">
-    <cfRule type="expression" dxfId="310" priority="299">
+    <cfRule type="expression" dxfId="311" priority="299">
       <formula>H694=$F694</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J694:K694">
-    <cfRule type="expression" dxfId="309" priority="300">
+    <cfRule type="expression" dxfId="310" priority="300">
       <formula>J694=$G694</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A694">
-    <cfRule type="expression" dxfId="308" priority="301">
+    <cfRule type="expression" dxfId="309" priority="301">
       <formula>F694&lt;&gt;G694</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H696:I696">
-    <cfRule type="expression" dxfId="307" priority="296">
+    <cfRule type="expression" dxfId="308" priority="296">
       <formula>H696=$F696</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J696:K696">
-    <cfRule type="expression" dxfId="306" priority="297">
+    <cfRule type="expression" dxfId="307" priority="297">
       <formula>J696=$G696</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A696">
-    <cfRule type="expression" dxfId="305" priority="298">
+    <cfRule type="expression" dxfId="306" priority="298">
       <formula>F696&lt;&gt;G696</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H697:I697">
-    <cfRule type="expression" dxfId="304" priority="293">
+    <cfRule type="expression" dxfId="305" priority="293">
       <formula>H697=$F697</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J697:K697">
-    <cfRule type="expression" dxfId="303" priority="294">
+    <cfRule type="expression" dxfId="304" priority="294">
       <formula>J697=$G697</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A697">
-    <cfRule type="expression" dxfId="302" priority="295">
+    <cfRule type="expression" dxfId="303" priority="295">
       <formula>F697&lt;&gt;G697</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H819:I819">
-    <cfRule type="expression" dxfId="301" priority="287">
+    <cfRule type="expression" dxfId="302" priority="287">
       <formula>H819=$F819</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J819:K819">
-    <cfRule type="expression" dxfId="300" priority="288">
+    <cfRule type="expression" dxfId="301" priority="288">
       <formula>J819=$G819</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A819">
-    <cfRule type="expression" dxfId="299" priority="289">
+    <cfRule type="expression" dxfId="300" priority="289">
       <formula>F819&lt;&gt;G819</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A462">
-    <cfRule type="expression" dxfId="298" priority="286">
+    <cfRule type="expression" dxfId="299" priority="286">
       <formula>F462&lt;&gt;G462</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H832:I832">
-    <cfRule type="expression" dxfId="297" priority="281">
+    <cfRule type="expression" dxfId="298" priority="281">
       <formula>H832=$F832</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J832:K832">
-    <cfRule type="expression" dxfId="296" priority="282">
+    <cfRule type="expression" dxfId="297" priority="282">
       <formula>J832=$G832</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A832">
-    <cfRule type="expression" dxfId="295" priority="283">
+    <cfRule type="expression" dxfId="296" priority="283">
       <formula>F832&lt;&gt;G832</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H829:I829">
-    <cfRule type="expression" dxfId="294" priority="278">
+    <cfRule type="expression" dxfId="295" priority="278">
       <formula>H829=$F829</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J829:K829">
-    <cfRule type="expression" dxfId="293" priority="279">
+    <cfRule type="expression" dxfId="294" priority="279">
       <formula>J829=$G829</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A829">
-    <cfRule type="expression" dxfId="292" priority="280">
+    <cfRule type="expression" dxfId="293" priority="280">
       <formula>F829&lt;&gt;G829</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H833:I833">
-    <cfRule type="expression" dxfId="291" priority="275">
+    <cfRule type="expression" dxfId="292" priority="275">
       <formula>H833=$F833</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J833:K833">
-    <cfRule type="expression" dxfId="290" priority="276">
+    <cfRule type="expression" dxfId="291" priority="276">
       <formula>J833=$G833</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A833">
-    <cfRule type="expression" dxfId="289" priority="277">
+    <cfRule type="expression" dxfId="290" priority="277">
       <formula>F833&lt;&gt;G833</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H834:I834">
-    <cfRule type="expression" dxfId="288" priority="272">
+    <cfRule type="expression" dxfId="289" priority="272">
       <formula>H834=$F834</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J834:K834">
-    <cfRule type="expression" dxfId="287" priority="273">
+    <cfRule type="expression" dxfId="288" priority="273">
       <formula>J834=$G834</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A834">
-    <cfRule type="expression" dxfId="286" priority="274">
+    <cfRule type="expression" dxfId="287" priority="274">
       <formula>F834&lt;&gt;G834</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H820:I820">
-    <cfRule type="expression" dxfId="285" priority="269">
+    <cfRule type="expression" dxfId="286" priority="269">
       <formula>H820=$F820</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J820:K820">
-    <cfRule type="expression" dxfId="284" priority="270">
+    <cfRule type="expression" dxfId="285" priority="270">
       <formula>J820=$G820</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A820">
-    <cfRule type="expression" dxfId="283" priority="271">
+    <cfRule type="expression" dxfId="284" priority="271">
       <formula>F820&lt;&gt;G820</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H828:I828">
-    <cfRule type="expression" dxfId="282" priority="266">
+    <cfRule type="expression" dxfId="283" priority="266">
       <formula>H828=$F828</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J828:K828">
-    <cfRule type="expression" dxfId="281" priority="267">
+    <cfRule type="expression" dxfId="282" priority="267">
       <formula>J828=$G828</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A828">
-    <cfRule type="expression" dxfId="280" priority="268">
+    <cfRule type="expression" dxfId="281" priority="268">
       <formula>F828&lt;&gt;G828</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H844:I844">
-    <cfRule type="expression" dxfId="279" priority="263">
+    <cfRule type="expression" dxfId="280" priority="263">
       <formula>H844=$F844</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J844:K844">
-    <cfRule type="expression" dxfId="278" priority="264">
+    <cfRule type="expression" dxfId="279" priority="264">
       <formula>J844=$G844</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A844">
-    <cfRule type="expression" dxfId="277" priority="265">
+    <cfRule type="expression" dxfId="278" priority="265">
       <formula>F844&lt;&gt;G844</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H845:I845">
-    <cfRule type="expression" dxfId="276" priority="260">
+    <cfRule type="expression" dxfId="277" priority="260">
       <formula>H845=$F845</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J845:K845">
-    <cfRule type="expression" dxfId="275" priority="261">
+    <cfRule type="expression" dxfId="276" priority="261">
       <formula>J845=$G845</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A845">
-    <cfRule type="expression" dxfId="274" priority="262">
+    <cfRule type="expression" dxfId="275" priority="262">
       <formula>F845&lt;&gt;G845</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A459">
-    <cfRule type="expression" dxfId="273" priority="259">
+    <cfRule type="expression" dxfId="274" priority="259">
       <formula>F459&lt;&gt;G459</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H831:I831">
-    <cfRule type="expression" dxfId="272" priority="254">
+    <cfRule type="expression" dxfId="273" priority="254">
       <formula>H831=$F831</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J831:K831">
-    <cfRule type="expression" dxfId="271" priority="255">
+    <cfRule type="expression" dxfId="272" priority="255">
       <formula>J831=$G831</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A831">
-    <cfRule type="expression" dxfId="270" priority="256">
+    <cfRule type="expression" dxfId="271" priority="256">
       <formula>F831&lt;&gt;G831</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A325">
-    <cfRule type="expression" dxfId="269" priority="250">
+    <cfRule type="expression" dxfId="270" priority="250">
       <formula>F325&lt;&gt;G325</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A326">
-    <cfRule type="expression" dxfId="268" priority="247">
+    <cfRule type="expression" dxfId="269" priority="247">
       <formula>F326&lt;&gt;G326</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
-    <cfRule type="expression" dxfId="267" priority="241">
+    <cfRule type="expression" dxfId="268" priority="241">
       <formula>F28&lt;&gt;G28</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A348">
-    <cfRule type="expression" dxfId="266" priority="238">
+    <cfRule type="expression" dxfId="267" priority="238">
       <formula>F348&lt;&gt;G348</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A392">
-    <cfRule type="expression" dxfId="265" priority="235">
+    <cfRule type="expression" dxfId="266" priority="235">
       <formula>F392&lt;&gt;G392</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A393">
-    <cfRule type="expression" dxfId="264" priority="232">
+    <cfRule type="expression" dxfId="265" priority="232">
       <formula>F393&lt;&gt;G393</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A394">
-    <cfRule type="expression" dxfId="263" priority="229">
+    <cfRule type="expression" dxfId="264" priority="229">
       <formula>F394&lt;&gt;G394</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A395">
-    <cfRule type="expression" dxfId="262" priority="226">
+    <cfRule type="expression" dxfId="263" priority="226">
       <formula>F395&lt;&gt;G395</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A396">
-    <cfRule type="expression" dxfId="261" priority="223">
+    <cfRule type="expression" dxfId="262" priority="223">
       <formula>F396&lt;&gt;G396</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A249">
-    <cfRule type="expression" dxfId="260" priority="220">
+    <cfRule type="expression" dxfId="261" priority="220">
       <formula>F249&lt;&gt;G249</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A256">
-    <cfRule type="expression" dxfId="259" priority="217">
+    <cfRule type="expression" dxfId="260" priority="217">
       <formula>F256&lt;&gt;G256</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A255">
-    <cfRule type="expression" dxfId="258" priority="214">
+    <cfRule type="expression" dxfId="259" priority="214">
       <formula>F255&lt;&gt;G255</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A309">
-    <cfRule type="expression" dxfId="257" priority="211">
+    <cfRule type="expression" dxfId="258" priority="211">
       <formula>F309&lt;&gt;G309</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A353">
-    <cfRule type="expression" dxfId="256" priority="208">
+    <cfRule type="expression" dxfId="257" priority="208">
       <formula>F353&lt;&gt;G353</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A356">
-    <cfRule type="expression" dxfId="255" priority="205">
+    <cfRule type="expression" dxfId="256" priority="205">
       <formula>F356&lt;&gt;G356</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A370">
-    <cfRule type="expression" dxfId="254" priority="199">
+    <cfRule type="expression" dxfId="255" priority="199">
       <formula>F370&lt;&gt;G370</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A501">
-    <cfRule type="expression" dxfId="253" priority="198">
+    <cfRule type="expression" dxfId="254" priority="198">
       <formula>F501&lt;&gt;G501</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A502">
-    <cfRule type="expression" dxfId="252" priority="195">
+    <cfRule type="expression" dxfId="253" priority="195">
       <formula>F502&lt;&gt;G502</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A503">
-    <cfRule type="expression" dxfId="251" priority="192">
+    <cfRule type="expression" dxfId="252" priority="192">
       <formula>F503&lt;&gt;G503</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H786:I786">
-    <cfRule type="expression" dxfId="250" priority="187">
+    <cfRule type="expression" dxfId="251" priority="187">
       <formula>H786=$F786</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J786:K786">
-    <cfRule type="expression" dxfId="249" priority="188">
+    <cfRule type="expression" dxfId="250" priority="188">
       <formula>J786=$G786</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A786">
-    <cfRule type="expression" dxfId="248" priority="189">
+    <cfRule type="expression" dxfId="249" priority="189">
       <formula>F786&lt;&gt;G786</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H787:I787">
-    <cfRule type="expression" dxfId="247" priority="184">
+    <cfRule type="expression" dxfId="248" priority="184">
       <formula>H787=$F787</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J787:K787">
-    <cfRule type="expression" dxfId="246" priority="185">
+    <cfRule type="expression" dxfId="247" priority="185">
       <formula>J787=$G787</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A787">
-    <cfRule type="expression" dxfId="245" priority="186">
+    <cfRule type="expression" dxfId="246" priority="186">
       <formula>F787&lt;&gt;G787</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H788:I788">
-    <cfRule type="expression" dxfId="244" priority="181">
+    <cfRule type="expression" dxfId="245" priority="181">
       <formula>H788=$F788</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J788:K788">
-    <cfRule type="expression" dxfId="243" priority="182">
+    <cfRule type="expression" dxfId="244" priority="182">
       <formula>J788=$G788</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A788">
-    <cfRule type="expression" dxfId="242" priority="183">
+    <cfRule type="expression" dxfId="243" priority="183">
       <formula>F788&lt;&gt;G788</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H789:I789">
-    <cfRule type="expression" dxfId="241" priority="178">
+    <cfRule type="expression" dxfId="242" priority="178">
       <formula>H789=$F789</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J789:K789">
-    <cfRule type="expression" dxfId="240" priority="179">
+    <cfRule type="expression" dxfId="241" priority="179">
       <formula>J789=$G789</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A789">
-    <cfRule type="expression" dxfId="239" priority="180">
+    <cfRule type="expression" dxfId="240" priority="180">
       <formula>F789&lt;&gt;G789</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H661:I661">
-    <cfRule type="expression" dxfId="238" priority="175">
+    <cfRule type="expression" dxfId="239" priority="175">
       <formula>H661=$F661</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J661:K661">
-    <cfRule type="expression" dxfId="237" priority="176">
+    <cfRule type="expression" dxfId="238" priority="176">
       <formula>J661=$G661</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A661">
-    <cfRule type="expression" dxfId="236" priority="177">
+    <cfRule type="expression" dxfId="237" priority="177">
       <formula>F661&lt;&gt;G661</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H660:I660">
-    <cfRule type="expression" dxfId="235" priority="172">
+    <cfRule type="expression" dxfId="236" priority="172">
       <formula>H660=$F660</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J660:K660">
-    <cfRule type="expression" dxfId="234" priority="173">
+    <cfRule type="expression" dxfId="235" priority="173">
       <formula>J660=$G660</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A660">
-    <cfRule type="expression" dxfId="233" priority="174">
+    <cfRule type="expression" dxfId="234" priority="174">
       <formula>F660&lt;&gt;G660</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H659:I659">
-    <cfRule type="expression" dxfId="232" priority="169">
+    <cfRule type="expression" dxfId="233" priority="169">
       <formula>H659=$F659</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J659:K659">
-    <cfRule type="expression" dxfId="231" priority="170">
+    <cfRule type="expression" dxfId="232" priority="170">
       <formula>J659=$G659</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A659">
-    <cfRule type="expression" dxfId="230" priority="171">
+    <cfRule type="expression" dxfId="231" priority="171">
       <formula>F659&lt;&gt;G659</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H363:I364">
-    <cfRule type="expression" dxfId="229" priority="166">
+    <cfRule type="expression" dxfId="230" priority="166">
       <formula>H363=$F363</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J363:K364">
-    <cfRule type="expression" dxfId="228" priority="167">
+    <cfRule type="expression" dxfId="229" priority="167">
       <formula>J363=$G363</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A363:A364">
-    <cfRule type="expression" dxfId="227" priority="168">
+    <cfRule type="expression" dxfId="228" priority="168">
       <formula>F363&lt;&gt;G363</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H298:I298">
-    <cfRule type="expression" dxfId="226" priority="163">
+    <cfRule type="expression" dxfId="227" priority="163">
       <formula>H298=$F298</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J298:K298">
-    <cfRule type="expression" dxfId="225" priority="164">
+    <cfRule type="expression" dxfId="226" priority="164">
       <formula>J298=$G298</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A298">
-    <cfRule type="expression" dxfId="224" priority="165">
+    <cfRule type="expression" dxfId="225" priority="165">
       <formula>F298&lt;&gt;G298</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H299:I299">
-    <cfRule type="expression" dxfId="223" priority="160">
+    <cfRule type="expression" dxfId="224" priority="160">
       <formula>H299=$F299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J299:K299">
-    <cfRule type="expression" dxfId="222" priority="161">
+    <cfRule type="expression" dxfId="223" priority="161">
       <formula>J299=$G299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A299">
-    <cfRule type="expression" dxfId="221" priority="162">
+    <cfRule type="expression" dxfId="222" priority="162">
       <formula>F299&lt;&gt;G299</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A297">
-    <cfRule type="expression" dxfId="220" priority="159">
+    <cfRule type="expression" dxfId="221" priority="159">
       <formula>F297&lt;&gt;G297</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H234:I234">
-    <cfRule type="expression" dxfId="219" priority="154">
+    <cfRule type="expression" dxfId="220" priority="154">
       <formula>H234=$F234</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J234:K234">
-    <cfRule type="expression" dxfId="218" priority="155">
+    <cfRule type="expression" dxfId="219" priority="155">
       <formula>J234=$G234</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A234">
-    <cfRule type="expression" dxfId="217" priority="156">
+    <cfRule type="expression" dxfId="218" priority="156">
       <formula>F234&lt;&gt;G234</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H377:I377">
-    <cfRule type="expression" dxfId="216" priority="151">
+    <cfRule type="expression" dxfId="217" priority="151">
       <formula>H377=$F377</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J377:K377">
-    <cfRule type="expression" dxfId="215" priority="152">
+    <cfRule type="expression" dxfId="216" priority="152">
       <formula>J377=$G377</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A377">
-    <cfRule type="expression" dxfId="214" priority="153">
+    <cfRule type="expression" dxfId="215" priority="153">
       <formula>F377&lt;&gt;G377</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H627:I627">
-    <cfRule type="expression" dxfId="213" priority="148">
+    <cfRule type="expression" dxfId="214" priority="148">
       <formula>H627=$F627</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J627:K627">
-    <cfRule type="expression" dxfId="212" priority="149">
+    <cfRule type="expression" dxfId="213" priority="149">
       <formula>J627=$G627</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A627">
-    <cfRule type="expression" dxfId="211" priority="150">
+    <cfRule type="expression" dxfId="212" priority="150">
       <formula>F627&lt;&gt;G627</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H635:I635">
-    <cfRule type="expression" dxfId="210" priority="145">
+    <cfRule type="expression" dxfId="211" priority="145">
       <formula>H635=$F635</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J635:K635">
-    <cfRule type="expression" dxfId="209" priority="146">
+    <cfRule type="expression" dxfId="210" priority="146">
       <formula>J635=$G635</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A635">
-    <cfRule type="expression" dxfId="208" priority="147">
+    <cfRule type="expression" dxfId="209" priority="147">
       <formula>F635&lt;&gt;G635</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H630:I630">
-    <cfRule type="expression" dxfId="207" priority="142">
+    <cfRule type="expression" dxfId="208" priority="142">
       <formula>H630=$F630</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J630:K630">
-    <cfRule type="expression" dxfId="206" priority="143">
+    <cfRule type="expression" dxfId="207" priority="143">
       <formula>J630=$G630</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A630">
-    <cfRule type="expression" dxfId="205" priority="144">
+    <cfRule type="expression" dxfId="206" priority="144">
       <formula>F630&lt;&gt;G630</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H275:I275">
-    <cfRule type="expression" dxfId="204" priority="139">
+    <cfRule type="expression" dxfId="205" priority="139">
       <formula>H275=$F275</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J275:K275">
-    <cfRule type="expression" dxfId="203" priority="140">
+    <cfRule type="expression" dxfId="204" priority="140">
       <formula>J275=$G275</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A275">
-    <cfRule type="expression" dxfId="202" priority="141">
+    <cfRule type="expression" dxfId="203" priority="141">
       <formula>F275&lt;&gt;G275</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H263:I267">
-    <cfRule type="expression" dxfId="201" priority="133">
+    <cfRule type="expression" dxfId="202" priority="133">
       <formula>H263=$F263</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J263:K267">
-    <cfRule type="expression" dxfId="200" priority="134">
+    <cfRule type="expression" dxfId="201" priority="134">
       <formula>J263=$G263</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A263:A267">
-    <cfRule type="expression" dxfId="199" priority="135">
+    <cfRule type="expression" dxfId="200" priority="135">
       <formula>F263&lt;&gt;G263</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H277:I277">
-    <cfRule type="expression" dxfId="198" priority="130">
+    <cfRule type="expression" dxfId="199" priority="130">
       <formula>H277=$F277</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J277:K277">
-    <cfRule type="expression" dxfId="197" priority="131">
+    <cfRule type="expression" dxfId="198" priority="131">
       <formula>J277=$G277</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A277">
-    <cfRule type="expression" dxfId="196" priority="132">
+    <cfRule type="expression" dxfId="197" priority="132">
       <formula>F277&lt;&gt;G277</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H278:I278">
-    <cfRule type="expression" dxfId="195" priority="127">
+    <cfRule type="expression" dxfId="196" priority="127">
       <formula>H278=$F278</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J278:K278">
-    <cfRule type="expression" dxfId="194" priority="128">
+    <cfRule type="expression" dxfId="195" priority="128">
       <formula>J278=$G278</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A278">
-    <cfRule type="expression" dxfId="193" priority="129">
+    <cfRule type="expression" dxfId="194" priority="129">
       <formula>F278&lt;&gt;G278</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A711">
-    <cfRule type="expression" dxfId="192" priority="126">
+    <cfRule type="expression" dxfId="193" priority="126">
       <formula>F711&lt;&gt;G711</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A712">
-    <cfRule type="expression" dxfId="191" priority="123">
+    <cfRule type="expression" dxfId="192" priority="123">
       <formula>F712&lt;&gt;G712</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A714">
-    <cfRule type="expression" dxfId="190" priority="120">
+    <cfRule type="expression" dxfId="191" priority="120">
       <formula>F714&lt;&gt;G714</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A713">
-    <cfRule type="expression" dxfId="189" priority="117">
+    <cfRule type="expression" dxfId="190" priority="117">
       <formula>F713&lt;&gt;G713</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A715">
-    <cfRule type="expression" dxfId="188" priority="114">
+    <cfRule type="expression" dxfId="189" priority="114">
       <formula>F715&lt;&gt;G715</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A717:A720">
-    <cfRule type="expression" dxfId="187" priority="111">
+    <cfRule type="expression" dxfId="188" priority="111">
       <formula>F717&lt;&gt;G717</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A716">
-    <cfRule type="expression" dxfId="186" priority="108">
+    <cfRule type="expression" dxfId="187" priority="108">
       <formula>F716&lt;&gt;G716</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H542:I542">
-    <cfRule type="expression" dxfId="185" priority="103">
+    <cfRule type="expression" dxfId="186" priority="103">
       <formula>H542=$F542</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J542:K542">
-    <cfRule type="expression" dxfId="184" priority="104">
+    <cfRule type="expression" dxfId="185" priority="104">
       <formula>J542=$G542</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A542">
-    <cfRule type="expression" dxfId="183" priority="105">
+    <cfRule type="expression" dxfId="184" priority="105">
       <formula>F542&lt;&gt;G542</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H470:I470">
-    <cfRule type="expression" dxfId="182" priority="100">
+    <cfRule type="expression" dxfId="183" priority="100">
       <formula>H470=$F470</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J470:K470">
-    <cfRule type="expression" dxfId="181" priority="101">
+    <cfRule type="expression" dxfId="182" priority="101">
       <formula>J470=$G470</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A470">
-    <cfRule type="expression" dxfId="180" priority="102">
+    <cfRule type="expression" dxfId="181" priority="102">
       <formula>F470&lt;&gt;G470</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H471:I475">
-    <cfRule type="expression" dxfId="179" priority="97">
+    <cfRule type="expression" dxfId="180" priority="97">
       <formula>H471=$F471</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J471:K475">
-    <cfRule type="expression" dxfId="178" priority="98">
+    <cfRule type="expression" dxfId="179" priority="98">
       <formula>J471=$G471</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A471:A475">
-    <cfRule type="expression" dxfId="177" priority="99">
+    <cfRule type="expression" dxfId="178" priority="99">
       <formula>F471&lt;&gt;G471</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H476:I483">
-    <cfRule type="expression" dxfId="176" priority="94">
+    <cfRule type="expression" dxfId="177" priority="94">
       <formula>H476=$F476</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J476:K483">
-    <cfRule type="expression" dxfId="175" priority="95">
+    <cfRule type="expression" dxfId="176" priority="95">
       <formula>J476=$G476</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A476:A483">
-    <cfRule type="expression" dxfId="174" priority="96">
+    <cfRule type="expression" dxfId="175" priority="96">
       <formula>F476&lt;&gt;G476</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H313:I313">
-    <cfRule type="expression" dxfId="173" priority="91">
+    <cfRule type="expression" dxfId="174" priority="91">
       <formula>H313=$F313</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J313:K313">
-    <cfRule type="expression" dxfId="172" priority="92">
+    <cfRule type="expression" dxfId="173" priority="92">
       <formula>J313=$G313</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A313">
-    <cfRule type="expression" dxfId="171" priority="93">
+    <cfRule type="expression" dxfId="172" priority="93">
       <formula>F313&lt;&gt;G313</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A700">
-    <cfRule type="expression" dxfId="170" priority="90">
+    <cfRule type="expression" dxfId="171" priority="90">
       <formula>F700&lt;&gt;G700</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A701">
-    <cfRule type="expression" dxfId="169" priority="87">
+    <cfRule type="expression" dxfId="170" priority="87">
       <formula>F701&lt;&gt;G701</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A702">
-    <cfRule type="expression" dxfId="168" priority="84">
+    <cfRule type="expression" dxfId="169" priority="84">
       <formula>F702&lt;&gt;G702</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A703">
-    <cfRule type="expression" dxfId="167" priority="81">
+    <cfRule type="expression" dxfId="168" priority="81">
       <formula>F703&lt;&gt;G703</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A704">
-    <cfRule type="expression" dxfId="166" priority="78">
+    <cfRule type="expression" dxfId="167" priority="78">
       <formula>F704&lt;&gt;G704</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A705">
-    <cfRule type="expression" dxfId="165" priority="75">
+    <cfRule type="expression" dxfId="166" priority="75">
       <formula>F705&lt;&gt;G705</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A706">
-    <cfRule type="expression" dxfId="164" priority="72">
+    <cfRule type="expression" dxfId="165" priority="72">
       <formula>F706&lt;&gt;G706</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A707">
-    <cfRule type="expression" dxfId="163" priority="69">
+    <cfRule type="expression" dxfId="164" priority="69">
       <formula>F707&lt;&gt;G707</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H594:I594 H596:I597">
-    <cfRule type="expression" dxfId="162" priority="64">
+    <cfRule type="expression" dxfId="163" priority="64">
       <formula>H594=$F594</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J594:K594 J596:K597">
-    <cfRule type="expression" dxfId="161" priority="65">
+    <cfRule type="expression" dxfId="162" priority="65">
       <formula>J594=$G594</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A594 A596:A597">
-    <cfRule type="expression" dxfId="160" priority="66">
+    <cfRule type="expression" dxfId="161" priority="66">
       <formula>F594&lt;&gt;G594</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H47:I47">
-    <cfRule type="expression" dxfId="159" priority="61">
+    <cfRule type="expression" dxfId="160" priority="61">
       <formula>H47=$F47</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J47:K47">
-    <cfRule type="expression" dxfId="158" priority="62">
+    <cfRule type="expression" dxfId="159" priority="62">
       <formula>J47=$G47</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47">
-    <cfRule type="expression" dxfId="157" priority="63">
+    <cfRule type="expression" dxfId="158" priority="63">
       <formula>F47&lt;&gt;G47</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H515:I515">
-    <cfRule type="expression" dxfId="156" priority="58">
+    <cfRule type="expression" dxfId="157" priority="58">
       <formula>H515=$F515</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J515:K515">
-    <cfRule type="expression" dxfId="155" priority="59">
+    <cfRule type="expression" dxfId="156" priority="59">
       <formula>J515=$G515</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A515">
-    <cfRule type="expression" dxfId="154" priority="60">
+    <cfRule type="expression" dxfId="155" priority="60">
       <formula>F515&lt;&gt;G515</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H595:I595">
-    <cfRule type="expression" dxfId="153" priority="55">
+    <cfRule type="expression" dxfId="154" priority="55">
       <formula>H595=$F595</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J595:K595">
-    <cfRule type="expression" dxfId="152" priority="56">
+    <cfRule type="expression" dxfId="153" priority="56">
       <formula>J595=$G595</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A595">
-    <cfRule type="expression" dxfId="151" priority="57">
+    <cfRule type="expression" dxfId="152" priority="57">
       <formula>F595&lt;&gt;G595</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H598:I598">
-    <cfRule type="expression" dxfId="150" priority="52">
+    <cfRule type="expression" dxfId="151" priority="52">
       <formula>H598=$F598</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J598:K598">
-    <cfRule type="expression" dxfId="149" priority="53">
+    <cfRule type="expression" dxfId="150" priority="53">
       <formula>J598=$G598</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A598">
-    <cfRule type="expression" dxfId="148" priority="54">
+    <cfRule type="expression" dxfId="149" priority="54">
       <formula>F598&lt;&gt;G598</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H840:I840">
-    <cfRule type="expression" dxfId="147" priority="49">
+    <cfRule type="expression" dxfId="148" priority="49">
       <formula>H840=$F840</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J840:K840">
-    <cfRule type="expression" dxfId="146" priority="50">
+    <cfRule type="expression" dxfId="147" priority="50">
       <formula>J840=$G840</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A840">
-    <cfRule type="expression" dxfId="145" priority="51">
+    <cfRule type="expression" dxfId="146" priority="51">
       <formula>F840&lt;&gt;G840</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18:I19">
-    <cfRule type="expression" dxfId="144" priority="46">
+    <cfRule type="expression" dxfId="145" priority="46">
       <formula>H18=$F18</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J18:K19">
-    <cfRule type="expression" dxfId="143" priority="47">
+    <cfRule type="expression" dxfId="144" priority="47">
       <formula>J18=$G18</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18:A19">
-    <cfRule type="expression" dxfId="142" priority="48">
+    <cfRule type="expression" dxfId="143" priority="48">
       <formula>F18&lt;&gt;G18</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H184:I184">
-    <cfRule type="expression" dxfId="141" priority="43">
+    <cfRule type="expression" dxfId="142" priority="43">
       <formula>H184=$F184</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J184:K184">
-    <cfRule type="expression" dxfId="140" priority="44">
+    <cfRule type="expression" dxfId="141" priority="44">
       <formula>J184=$G184</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A184">
-    <cfRule type="expression" dxfId="139" priority="45">
+    <cfRule type="expression" dxfId="140" priority="45">
       <formula>F184&lt;&gt;G184</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H183:I183">
-    <cfRule type="expression" dxfId="138" priority="39">
+    <cfRule type="expression" dxfId="139" priority="39">
       <formula>H183=$F183</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J183:K183">
-    <cfRule type="expression" dxfId="137" priority="40">
+    <cfRule type="expression" dxfId="138" priority="40">
       <formula>J183=$G183</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A183">
-    <cfRule type="expression" dxfId="136" priority="41">
+    <cfRule type="expression" dxfId="137" priority="41">
       <formula>F183&lt;&gt;G183</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H185:I185">
-    <cfRule type="expression" dxfId="135" priority="35">
+    <cfRule type="expression" dxfId="136" priority="35">
       <formula>H185=$F185</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J185:K185">
-    <cfRule type="expression" dxfId="134" priority="36">
+    <cfRule type="expression" dxfId="135" priority="36">
       <formula>J185=$G185</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A185">
-    <cfRule type="expression" dxfId="133" priority="37">
+    <cfRule type="expression" dxfId="134" priority="37">
       <formula>F185&lt;&gt;G185</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H758:I758">
-    <cfRule type="expression" dxfId="132" priority="31">
+    <cfRule type="expression" dxfId="133" priority="31">
       <formula>H758=$F758</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J758:K758">
-    <cfRule type="expression" dxfId="131" priority="32">
+    <cfRule type="expression" dxfId="132" priority="32">
       <formula>J758=$G758</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A758">
-    <cfRule type="expression" dxfId="130" priority="33">
+    <cfRule type="expression" dxfId="131" priority="33">
       <formula>F758&lt;&gt;G758</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H683:I683">
-    <cfRule type="expression" dxfId="129" priority="28">
+    <cfRule type="expression" dxfId="130" priority="28">
       <formula>H683=$F683</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J683:K683">
-    <cfRule type="expression" dxfId="128" priority="29">
+    <cfRule type="expression" dxfId="129" priority="29">
       <formula>J683=$G683</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A683">
-    <cfRule type="expression" dxfId="127" priority="30">
+    <cfRule type="expression" dxfId="128" priority="30">
       <formula>F683&lt;&gt;G683</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H469:I469">
-    <cfRule type="expression" dxfId="126" priority="16">
+    <cfRule type="expression" dxfId="127" priority="16">
       <formula>H469=$F469</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J469:K469">
-    <cfRule type="expression" dxfId="125" priority="17">
+    <cfRule type="expression" dxfId="126" priority="17">
       <formula>J469=$G469</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A469">
-    <cfRule type="expression" dxfId="124" priority="18">
+    <cfRule type="expression" dxfId="125" priority="18">
       <formula>F469&lt;&gt;G469</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H36:I36">
-    <cfRule type="expression" dxfId="123" priority="13">
+    <cfRule type="expression" dxfId="124" priority="13">
       <formula>H36=$F36</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J36:K36">
-    <cfRule type="expression" dxfId="122" priority="14">
+    <cfRule type="expression" dxfId="123" priority="14">
       <formula>J36=$G36</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36">
-    <cfRule type="expression" dxfId="121" priority="15">
+    <cfRule type="expression" dxfId="122" priority="15">
       <formula>F36&lt;&gt;G36</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H466:I466">
-    <cfRule type="expression" dxfId="120" priority="10">
+    <cfRule type="expression" dxfId="121" priority="10">
       <formula>H466=$F466</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J466:K466">
-    <cfRule type="expression" dxfId="119" priority="11">
+    <cfRule type="expression" dxfId="120" priority="11">
       <formula>J466=$G466</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A466">
-    <cfRule type="expression" dxfId="118" priority="12">
+    <cfRule type="expression" dxfId="119" priority="12">
       <formula>F466&lt;&gt;G466</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H484:I485">
-    <cfRule type="expression" dxfId="117" priority="7">
+    <cfRule type="expression" dxfId="118" priority="7">
       <formula>H484=$F484</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J484:K485">
-    <cfRule type="expression" dxfId="116" priority="8">
+    <cfRule type="expression" dxfId="117" priority="8">
       <formula>J484=$G484</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A484:A485">
-    <cfRule type="expression" dxfId="115" priority="9">
+    <cfRule type="expression" dxfId="116" priority="9">
       <formula>F484&lt;&gt;G484</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H381:I382">
-    <cfRule type="expression" dxfId="114" priority="4">
+    <cfRule type="expression" dxfId="115" priority="4">
       <formula>H381=$F381</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J381:K382">
-    <cfRule type="expression" dxfId="113" priority="5">
+    <cfRule type="expression" dxfId="114" priority="5">
       <formula>J381=$G381</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A381:A382">
-    <cfRule type="expression" dxfId="112" priority="6">
+    <cfRule type="expression" dxfId="113" priority="6">
       <formula>F381&lt;&gt;G381</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H45:I46">
-    <cfRule type="expression" dxfId="111" priority="1">
+    <cfRule type="expression" dxfId="112" priority="1">
       <formula>H45=$F45</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J45:K46">
-    <cfRule type="expression" dxfId="110" priority="2">
+    <cfRule type="expression" dxfId="111" priority="2">
       <formula>J45=$G45</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45:A46">
-    <cfRule type="expression" dxfId="109" priority="3">
+    <cfRule type="expression" dxfId="110" priority="3">
       <formula>F45&lt;&gt;G45</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24549,460 +24537,460 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF60C891-CC4F-4B7B-B95E-F7763AC250C3}">
-  <dimension ref="A1:A103"/>
+  <dimension ref="A1:A104"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="18" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
@@ -25017,7 +25005,7 @@
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" s="18" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
@@ -25027,7 +25015,7 @@
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
@@ -25042,7 +25030,7 @@
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
@@ -25055,371 +25043,381 @@
         <v>1057</v>
       </c>
     </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>1319</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection sheet="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <conditionalFormatting sqref="A99">
+    <cfRule type="expression" dxfId="109" priority="85">
+      <formula>F1048548&lt;&gt;G1048548</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A98">
     <cfRule type="expression" dxfId="108" priority="84">
-      <formula>F1048548&lt;&gt;G1048548</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A98">
-    <cfRule type="expression" dxfId="107" priority="83">
       <formula>F1048555&lt;&gt;G1048555</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63">
+    <cfRule type="expression" dxfId="107" priority="81">
+      <formula>F4&lt;&gt;G4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A64">
     <cfRule type="expression" dxfId="106" priority="80">
+      <formula>F5&lt;&gt;G5</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A54">
+    <cfRule type="expression" dxfId="105" priority="72">
       <formula>F4&lt;&gt;G4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A64">
-    <cfRule type="expression" dxfId="105" priority="79">
+  <conditionalFormatting sqref="A55">
+    <cfRule type="expression" dxfId="104" priority="71">
       <formula>F5&lt;&gt;G5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A54">
-    <cfRule type="expression" dxfId="104" priority="71">
+  <conditionalFormatting sqref="A12">
+    <cfRule type="expression" dxfId="103" priority="70">
       <formula>F4&lt;&gt;G4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A55">
-    <cfRule type="expression" dxfId="103" priority="70">
+  <conditionalFormatting sqref="A48">
+    <cfRule type="expression" dxfId="102" priority="69">
+      <formula>F7&lt;&gt;G7</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A51">
+    <cfRule type="expression" dxfId="101" priority="64">
+      <formula>F8&lt;&gt;G8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17">
+    <cfRule type="expression" dxfId="100" priority="63">
       <formula>F5&lt;&gt;G5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A12">
-    <cfRule type="expression" dxfId="102" priority="69">
-      <formula>F4&lt;&gt;G4</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A48">
-    <cfRule type="expression" dxfId="101" priority="68">
-      <formula>F7&lt;&gt;G7</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A51">
-    <cfRule type="expression" dxfId="100" priority="63">
-      <formula>F8&lt;&gt;G8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A17">
-    <cfRule type="expression" dxfId="99" priority="62">
+  <conditionalFormatting sqref="A16">
+    <cfRule type="expression" dxfId="99" priority="61">
       <formula>F5&lt;&gt;G5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A16">
+  <conditionalFormatting sqref="A71">
     <cfRule type="expression" dxfId="98" priority="60">
-      <formula>F5&lt;&gt;G5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A71">
-    <cfRule type="expression" dxfId="97" priority="59">
       <formula>F22&lt;&gt;G22</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A73">
+    <cfRule type="expression" dxfId="97" priority="50">
+      <formula>F32&lt;&gt;G32</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A74">
     <cfRule type="expression" dxfId="96" priority="49">
-      <formula>F32&lt;&gt;G32</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A74">
+      <formula>#REF!&lt;&gt;#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A75">
     <cfRule type="expression" dxfId="95" priority="48">
       <formula>#REF!&lt;&gt;#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A75">
+  <conditionalFormatting sqref="A76">
     <cfRule type="expression" dxfId="94" priority="47">
       <formula>#REF!&lt;&gt;#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A76">
+  <conditionalFormatting sqref="A77">
     <cfRule type="expression" dxfId="93" priority="46">
+      <formula>F33&lt;&gt;G33</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A78">
+    <cfRule type="expression" dxfId="92" priority="45">
+      <formula>F34&lt;&gt;G34</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A79">
+    <cfRule type="expression" dxfId="91" priority="44">
+      <formula>F35&lt;&gt;G35</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A80">
+    <cfRule type="expression" dxfId="90" priority="43">
+      <formula>F36&lt;&gt;G36</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A81">
+    <cfRule type="expression" dxfId="89" priority="42">
+      <formula>F37&lt;&gt;G37</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A94">
+    <cfRule type="expression" dxfId="88" priority="304">
       <formula>#REF!&lt;&gt;#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A77">
-    <cfRule type="expression" dxfId="92" priority="45">
+  <conditionalFormatting sqref="A69:A70">
+    <cfRule type="expression" dxfId="87" priority="305">
       <formula>F33&lt;&gt;G33</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A78">
-    <cfRule type="expression" dxfId="91" priority="44">
-      <formula>F34&lt;&gt;G34</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A79">
-    <cfRule type="expression" dxfId="90" priority="43">
+  <conditionalFormatting sqref="A25">
+    <cfRule type="expression" dxfId="86" priority="312">
+      <formula>F32&lt;&gt;G32</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A18">
+    <cfRule type="expression" dxfId="85" priority="319">
+      <formula>F32&lt;&gt;G32</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A73:A81">
+    <cfRule type="expression" dxfId="84" priority="320">
+      <formula>F23&lt;&gt;G23</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A39">
+    <cfRule type="expression" dxfId="83" priority="41">
+      <formula>F17&lt;&gt;G17</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A35">
+    <cfRule type="expression" dxfId="82" priority="322">
       <formula>F35&lt;&gt;G35</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A80">
-    <cfRule type="expression" dxfId="89" priority="42">
-      <formula>F36&lt;&gt;G36</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A81">
-    <cfRule type="expression" dxfId="88" priority="41">
-      <formula>F37&lt;&gt;G37</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A94">
-    <cfRule type="expression" dxfId="87" priority="303">
+  <conditionalFormatting sqref="A31">
+    <cfRule type="expression" dxfId="81" priority="40">
+      <formula>F14&lt;&gt;G14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A50">
+    <cfRule type="expression" dxfId="80" priority="323">
       <formula>#REF!&lt;&gt;#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A69:A70">
-    <cfRule type="expression" dxfId="86" priority="304">
-      <formula>F33&lt;&gt;G33</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A25">
-    <cfRule type="expression" dxfId="85" priority="311">
-      <formula>F32&lt;&gt;G32</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A18">
-    <cfRule type="expression" dxfId="84" priority="318">
-      <formula>F32&lt;&gt;G32</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A73:A81">
-    <cfRule type="expression" dxfId="83" priority="319">
-      <formula>F23&lt;&gt;G23</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A39">
-    <cfRule type="expression" dxfId="82" priority="40">
-      <formula>F17&lt;&gt;G17</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A35">
-    <cfRule type="expression" dxfId="81" priority="321">
-      <formula>F35&lt;&gt;G35</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A31">
-    <cfRule type="expression" dxfId="80" priority="39">
-      <formula>F14&lt;&gt;G14</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A50">
-    <cfRule type="expression" dxfId="79" priority="322">
-      <formula>#REF!&lt;&gt;#REF!</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A93">
+    <cfRule type="expression" dxfId="79" priority="39">
+      <formula>F44&lt;&gt;G44</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A56">
     <cfRule type="expression" dxfId="78" priority="38">
-      <formula>F44&lt;&gt;G44</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A56">
+      <formula>F25&lt;&gt;G25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A11">
     <cfRule type="expression" dxfId="77" priority="37">
-      <formula>F25&lt;&gt;G25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A11">
+      <formula>F4&lt;&gt;G4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A84:A86">
     <cfRule type="expression" dxfId="76" priority="36">
+      <formula>F50&lt;&gt;G50</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A52">
+    <cfRule type="expression" dxfId="75" priority="35">
+      <formula>F24&lt;&gt;G24</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A57:A59">
+    <cfRule type="expression" dxfId="74" priority="34">
+      <formula>F28&lt;&gt;G28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A60">
+    <cfRule type="expression" dxfId="73" priority="33">
+      <formula>F31&lt;&gt;G31</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A82 A88">
+    <cfRule type="expression" dxfId="72" priority="32">
+      <formula>F47&lt;&gt;G47</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A19:A20">
+    <cfRule type="expression" dxfId="71" priority="31">
+      <formula>F9&lt;&gt;G9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A90">
+    <cfRule type="expression" dxfId="70" priority="30">
+      <formula>F51&lt;&gt;G51</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A7">
+    <cfRule type="expression" dxfId="69" priority="28">
       <formula>F4&lt;&gt;G4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A84:A86">
-    <cfRule type="expression" dxfId="75" priority="35">
-      <formula>F50&lt;&gt;G50</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A52">
-    <cfRule type="expression" dxfId="74" priority="34">
-      <formula>F24&lt;&gt;G24</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A57:A59">
-    <cfRule type="expression" dxfId="73" priority="33">
-      <formula>F28&lt;&gt;G28</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A60">
-    <cfRule type="expression" dxfId="72" priority="32">
-      <formula>F31&lt;&gt;G31</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A82 A88">
-    <cfRule type="expression" dxfId="71" priority="31">
-      <formula>F47&lt;&gt;G47</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A19:A20">
-    <cfRule type="expression" dxfId="70" priority="30">
-      <formula>F9&lt;&gt;G9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A90">
-    <cfRule type="expression" dxfId="69" priority="29">
-      <formula>F51&lt;&gt;G51</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A7">
+  <conditionalFormatting sqref="A5">
     <cfRule type="expression" dxfId="68" priority="27">
       <formula>F4&lt;&gt;G4</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5">
-    <cfRule type="expression" dxfId="67" priority="26">
-      <formula>F4&lt;&gt;G4</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A49">
-    <cfRule type="expression" dxfId="66" priority="324">
+    <cfRule type="expression" dxfId="67" priority="325">
       <formula>F6&lt;&gt;G6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="expression" dxfId="65" priority="326">
+    <cfRule type="expression" dxfId="66" priority="327">
       <formula>F5&lt;&gt;G5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4">
-    <cfRule type="expression" dxfId="64" priority="328">
+    <cfRule type="expression" dxfId="65" priority="329">
       <formula>F5&lt;&gt;G5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14">
+    <cfRule type="expression" dxfId="64" priority="26">
+      <formula>F11&lt;&gt;G11</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13">
     <cfRule type="expression" dxfId="63" priority="25">
-      <formula>F11&lt;&gt;G11</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A13">
+      <formula>F10&lt;&gt;G10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15">
     <cfRule type="expression" dxfId="62" priority="24">
-      <formula>F10&lt;&gt;G10</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A15">
+      <formula>F12&lt;&gt;G12</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A87">
     <cfRule type="expression" dxfId="61" priority="23">
-      <formula>F12&lt;&gt;G12</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A87">
+      <formula>F60&lt;&gt;G60</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A72">
     <cfRule type="expression" dxfId="60" priority="22">
-      <formula>F60&lt;&gt;G60</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A72">
-    <cfRule type="expression" dxfId="59" priority="21">
       <formula>F47&lt;&gt;G47</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A89">
-    <cfRule type="expression" dxfId="58" priority="331">
+    <cfRule type="expression" dxfId="59" priority="332">
       <formula>F35&lt;&gt;G35</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A83">
+    <cfRule type="expression" dxfId="58" priority="21">
+      <formula>F58&lt;&gt;G58</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A34">
     <cfRule type="expression" dxfId="57" priority="20">
-      <formula>F58&lt;&gt;G58</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A34">
+      <formula>F25&lt;&gt;G25</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A32">
     <cfRule type="expression" dxfId="56" priority="19">
       <formula>F25&lt;&gt;G25</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A32">
+  <conditionalFormatting sqref="A46">
     <cfRule type="expression" dxfId="55" priority="18">
-      <formula>F25&lt;&gt;G25</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A46">
-    <cfRule type="expression" dxfId="54" priority="17">
       <formula>F31&lt;&gt;G31</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47">
-    <cfRule type="expression" dxfId="53" priority="13">
+    <cfRule type="expression" dxfId="54" priority="14">
       <formula>F32&lt;&gt;G32</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A66:A68">
-    <cfRule type="expression" dxfId="52" priority="334">
+    <cfRule type="expression" dxfId="53" priority="335">
       <formula>#REF!&lt;&gt;#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29:A30">
-    <cfRule type="expression" dxfId="51" priority="336">
+    <cfRule type="expression" dxfId="52" priority="337">
       <formula>F33&lt;&gt;G33</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:A28">
-    <cfRule type="expression" dxfId="50" priority="337">
+    <cfRule type="expression" dxfId="51" priority="338">
       <formula>#REF!&lt;&gt;#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37:A38">
-    <cfRule type="expression" dxfId="49" priority="340">
+    <cfRule type="expression" dxfId="50" priority="341">
       <formula>F36&lt;&gt;G36</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36">
+    <cfRule type="expression" dxfId="49" priority="13">
+      <formula>F28&lt;&gt;G28</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8">
     <cfRule type="expression" dxfId="48" priority="12">
-      <formula>F28&lt;&gt;G28</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A8">
+      <formula>F8&lt;&gt;G8</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A33">
     <cfRule type="expression" dxfId="47" priority="11">
-      <formula>F8&lt;&gt;G8</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A33">
-    <cfRule type="expression" dxfId="46" priority="10">
       <formula>F27&lt;&gt;G27</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A65">
-    <cfRule type="expression" dxfId="45" priority="341">
+    <cfRule type="expression" dxfId="46" priority="342">
       <formula>F32&lt;&gt;G32</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A62">
+    <cfRule type="expression" dxfId="45" priority="10">
+      <formula>F48&lt;&gt;G48</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A23:A24">
     <cfRule type="expression" dxfId="44" priority="9">
-      <formula>F48&lt;&gt;G48</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A23:A24">
+      <formula>F19&lt;&gt;G19</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A42:A43">
     <cfRule type="expression" dxfId="43" priority="8">
+      <formula>F36&lt;&gt;G36</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A44:A45">
+    <cfRule type="expression" dxfId="42" priority="7">
+      <formula>F38&lt;&gt;G38</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A40:A41">
+    <cfRule type="expression" dxfId="41" priority="6">
+      <formula>F36&lt;&gt;G36</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A21:A22">
+    <cfRule type="expression" dxfId="40" priority="5">
       <formula>F19&lt;&gt;G19</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A42:A43">
-    <cfRule type="expression" dxfId="42" priority="7">
-      <formula>F36&lt;&gt;G36</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A44:A45">
-    <cfRule type="expression" dxfId="41" priority="6">
-      <formula>F38&lt;&gt;G38</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A40:A41">
-    <cfRule type="expression" dxfId="40" priority="5">
-      <formula>F36&lt;&gt;G36</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A21:A22">
+  <conditionalFormatting sqref="A61">
     <cfRule type="expression" dxfId="39" priority="4">
-      <formula>F19&lt;&gt;G19</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A61">
+      <formula>F58&lt;&gt;G58</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9:A10">
     <cfRule type="expression" dxfId="38" priority="3">
-      <formula>F58&lt;&gt;G58</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A9:A10">
+      <formula>F9&lt;&gt;G9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A53">
     <cfRule type="expression" dxfId="37" priority="2">
-      <formula>F9&lt;&gt;G9</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A53">
+      <formula>F53&lt;&gt;G53</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A104">
     <cfRule type="expression" dxfId="36" priority="1">
-      <formula>F53&lt;&gt;G53</formula>
+      <formula>F104&lt;&gt;G104</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25433,231 +25431,231 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1560</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1564</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>1576</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>1572</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="18" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
@@ -25667,17 +25665,17 @@
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="18" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
     </row>
   </sheetData>
